--- a/네이버뉴스/test.xlsx
+++ b/네이버뉴스/test.xlsx
@@ -463,17 +463,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>'K바이오' 신기록 또 갈아치웠다…올 기술 수출 11조 '잭팟'</t>
+          <t>더불어민주당 이재명 대선후보, 중소기업 정책 및 비전 발표</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>레고켐, 체코에 1.2兆 기술이전보로노이도 같은날 美와 1兆 계약올해 기술수출 규모 '역대 최대'계약 건수도 지난해의 두 배로中 '바이오 쇼핑' 급증도 한몫‘K바이오’가 지난해 세운 기술수출 기록을 또다시 갈아치웠다. 올해 국내 제약·바이오기업의 기술수출 규모가 11조원을 넘겼다. 역대 최대다. 코로나19 대유행으로 해외 기업과의 대면 비즈니스가 어려운 상황에서 거둔 성과다. 신약 개발의 첫 관문인 후보물질 발굴에서도 국내 바이오기업이 세계 제약사들의 산실 역할을 하기 시작했다. 바이오시밀러(바이오의약품 복제약)와 진단산업에 이어 신약 개발 분야에서도 국내 기업의 기술력이 세계 무대에서 먹히고 있다는 평가가 나온다. ○레고켐바이오 “1조2127억원 기술수출”레고켐바이오는 “체코 소티오바이오텍과 5개 질환 유발 단백질 표적에 대한 항체약물접합체(ADC) 치료제 기술이전 계약을 체결했다”고 17일 발표했다. 총 계약 규모는 1조2127억원. 레고켐바이오는 이 계약금을 선급금, 임상 전(前), 임상, 품목 허가, 판매 등 다섯 단계로 나눠 받기로 했다. 가까운 시일 내에 선급금과 임상 진입 전 성과금으로 348억원을 받는다. 회사 관계자는 “각 단계에서 받는 계약금은 수령한 뒤 계약내용에 변동이 생겨도 되돌려주지 않아도 된다”고 말했다.레고켐바이오는 해마다 복수의 기술이전 계약을 체결하며 업계에 ‘플랫폼 바람’을 몰고 온 장본인이다. 이 회사는 유도미사일 기능을 하는 항체에 폭탄 역할을 하는 약물을 결합시키는 ADC 기술을 갖고 있다. 겨냥하는 표적과 약물만 바꾸면 얼마든지 새로운 신약 후보물질을 만들 수 있다.레고켐바이오는 올해 총 4건의 기술이전 관련 계약을 체결했다. 이 중 2건은 기술이전 계약, 다른 2건은 기술이전 계약을 별도 옵션으로 걸어놓은 공동연구 형태다. 지난 6월 레고켐바이오는 영국 익수다테라퓨틱스에 3개 표적에 대한 ADC 치료제의 개발·상용화 권리를 넘기면서 앞서 이 회사와 체결한 계약 규모를 4963억원에서 9200억원으로 늘렸다. 레고켐바이오는 ADC 기술이전으로 모두 10건의 계약을 성사시켰다. 국내 바이오기업 중 최다다. 이들 계약 규모는 3조7000억원이다. ○‘AI 분석’ 보로노이도 1조원대 기술이전보로노이는 “미국 피라미드바이오에 고형암 치료 후보물질 ‘VRN08’을 총 계약금 1조원에 기술이전하는 계약을 체결했다”고 이날 발표했다. VRN08은 암세포 성장에 관여하는 인자인 ‘MPS1’의 활성을 억제해 항암 효과를 낸다. 피라미드바이오는 이 물질로 유방암 치료제를 개발하기로 했다. 양사 합의로 선급금 등 구체적인 계약 내용은 공개되지 않았다.보로노이는 지금까지 3건의 기술이전에 성공했다. 지난해 10월 미국 나스닥시장 상장사인 오릭파마슈티컬즈와 7200억원 규모 기술이전 계약을 성사시켜 업계 주목을 받았다. 올해엔 1월 국내 제약사인 HK이노엔(계약 규모 비공개)에 후보물질을 넘겼고 8월엔 나스닥 상장사 브리켈바이오텍(3800억원)과 기술이전 계약을 맺었다. 이 회사는 컴퓨터를 이용해 신약 개발에 쓸 수 있는 물질들의 분자 구조를 도출하는 ‘보로노믹스’ 플랫폼 기술을 갖고 있다. 인공지능(AI)으로 세포·동물실험 결과를 분석해 신약 후보물질 선정에 걸리는 시간을 5년에서 1년6개월로 단축했다. ○중국행 기술이전 3배로 늘어두 회사의 기술수출 덕분에 올해 국내 제약·바이오업계의 기술수출 규모는 역대 최대가 됐다.한국제약바이오협회에 따르면 올해 기술수출 계약 규모는 이날 기준 11조4041억원으로 지난해 수준(10조1487억원)을 이미 뛰어넘었다. 계약 건수는 28건으로 지난해(14건)의 2배다. 단일 계약 규모로는 1월 미국 머크(MSD)에 면역세포치료제 3종을 기술이전한 GC셀이 2조900억원으로 가장 많다. 세계 10위권 제약사와 계약을 성사시킨 것은 올해 이 회사가 유일하다. 대웅제약은 위식도 역류질환 치료제인 ‘펙수프라잔’으로 올해 4건의 기술수출(누적 계약 규모 9931억원)을 성사시키며 가장 많은 계약을 체결했다.거래 대상을 보면 중국 기업들의 ‘K바이오 쇼핑’이 눈에 띈다. 중국 기업을 대상으로 한 기술이전 계약은 지난해 3건에서 올해 10건으로 3배 이상 늘었다.업계 관계자는 “최근 중국 기업들 사이에서 신약이 될 가능성이 있는 후보물질을 확보하려는 경쟁이 심화되고 있다”며 “중국 바이오 시장이 성장하면서 유럽, 미국에 앞서 중화권을 대상으로 먼저 기술이전을 성사하는 사례가 늘어날 것”이라고 말했다.</t>
+          <t>이재명 더불어민주당 대선후보가 24일 서울 여의도 중소기업중앙회에서 열린 중소기업 비전발표회에서 중소기업 정책 및 비전에 대해 프레젠테이션하고 있다.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.11.17. 오후 5:24</t>
+          <t>2021.11.24. 오후 3:56</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -486,17 +486,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>제주도 청년 캐릭터 ‘힘내라 청춘아’ 최우수상</t>
+          <t>DL이앤씨 ‘e편한세상 검단 어반센트로’ 12월 분양…검단 중심에서 만나는 새로운 주거 패러다임 각광</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>청년 캐릭터 공모전 결과 인천 이재준씨 수상  [제주=좌승훈 기자] 제주도는 청년정책 홍보를 위한 에 적합한 ‘청년 캐릭터 공모전’ 결과, 최우수상에 이재준(인천)씨의 ‘힘내라 청춘아’가 선정됐다고 17일 밝혔다. 이번 공모전은 제주 대표 캐릭터인 ‘돌이’와 ‘소리’를 활용해 청년 스스로가 제작한 캐릭터를 도정에 반영하기 위한 것이다.   공모는 9월 17일부터 10월 29일까지 전 국민을 대상으로 진행됐으며, 20점 이상의 청년 캐릭터 작품이 접수됐다. 우수상은 공동 출품자 송아영(제주)씨 외 1인, 장려상에는 정현자(서울)·채수인(제주)씨가 공동으로 선정됐다. 수상자에게는 상장과 함께 최우수작 100만원, 우수 30만원, 장려 15만원의 시상금이 지급된다.</t>
+          <t>미래가치 높은 검단신도시 장점에 ‘안심 교육 환경’‘원스톱 생활 인프라’와 쾌적한 자연환경 눈길DL이앤씨가 12월 분양하는 ‘e편한세상 검단 어반센트로’. e편한세상 브랜드 아이덴티티에 걸맞은 첨단 스마트 시스템과 특화 주거 시스템을 도입해 앞으로 검단신도시를 대표하는 랜드마크 단지가 될 전망이다. 사진제공 | DL이앤씨검단의 중심에서 새로운 주거 패러다임을 만날 수 있는 기회다. DL이앤씨(DL E&amp;C)가 12월 인천 서구 검단신도시에 들어서는 ‘e편한세상 검단 어반센트로’ 분양에 나설 예정이다. 검단신도시는 대형 호재가 많아 미래가치가 높고, 빼어난 주거 인프라를 갖춰 주목받는 곳. 특히 브랜드 건설사 시공 아파트가 드문 검단신도시에서 메이저 브랜드에 걸맞은 우수한 상품이 기대돼 예비 수요자들의 높은 관심을 끌고 있다.  e편한세상 검단 어반센트로는 지하 2층~지상 15층, 13개 동, 전용면적 59㎡, 총 822가구로 구성된다. 타입별 분양 가구수는 ▲59㎡A 554가구 ▲59㎡B 130가구 ▲59㎡C 135가구 ▲59㎡P1 1가구 ▲59㎡P2 2가구다. e편한세상 검단 어반센트로는 LH가 주관하는 민간참여 공공분양주택이다. 공공주택사업자가 토지를 제공하고 민간건설사가 시공하는 공동 시행 사업방식으로 민간 건설사 브랜드를 사용하고, 민영 아파트 대비 합리적인 분양가로 공급된다. 특히 전체 공급물량의 85%를 특별공급으로 분양해 가점이 부족한 무주택자들의 내 집 마련 기회로 꼽히고 있다. 검단신도시는 약 1110만㎡에 7만5000여 가구로 들어서는 2기신도시로 2023년 조성을 마칠 예정이다. 현재 1만3000여 가구가 분양을 마쳤고, 2~3단계 개발이 순차적으로 진행될 계획이다. 신도시답게 교육·교통·자연환경 등 인프라가 빼어나다. ‘스마트도시법’에 따라 스마트도시 건설사업 실시계획 승인을 받은 최초의 신도시인 점도 특징. 인천도시공사는 입주민들에게 각종 생활 정보를 제공하는 것은 물론 영종·송도에서 이미 시행된 호출버스인 아이모드(I-MOD)와 긴급 구조요청 기능 등을 갖춘 전용 모바일 앱도 지원할 예정이다. 무엇보다 다양한 개발 호재로 미래가치가 높다. 단지 부근에 인천지하철 1호선 신설역이 2024년 개통되고, 서부권광역급행철도(가칭 GTX-D) 신설 및 GTX-B 공용화 직결운행(김포~검단~용산)도 추진 중이다.  여기에 검단-경명로간 도로(예정), 강화~계양 고속도로(예정), 원당~태리간 광역도로(예정) 등 다수의 도로망이 완공되면 수도권 곳곳으로 더욱 빠르게 이동할 수 있다. 주변의 우수한 교육 여건과 자녀를 키우기에 안전한 단지 시설도 돋보인다. 약 300m 거리에 발산초가 위치해 있고, 추가로 공립 단설 유치원과 초·중·고교도 2023년까지 순차적으로 개교를 앞두고 있다. 인천서구 영어마을, 에더블 국제학교가 인근에 있어 자녀들의 영어 교육환경도 우수하다. 단지 주변에는 수변과 녹지가 풍부해 쾌적한 자연환경도 갖췄다. 바로 인근에 계양천 산책로가 있고, 근린공원이 단지 옆에 있다. 검단신도시 남쪽에는 서해와 한강을 잇는 명소인 경인 아라뱃길이 위치해 입주민들이 여가와 휴식을 즐기기도 좋은 입지다. e편한세상 검단 어반센트로 주변을 따라 편리한 생활 인프라가 들어서는 것도 눈여겨볼 장점이다. 인천지하철 1호선 신설역을 따라 문화·상업시설 등이 조성되는 ‘검단신도시 101역세권 개발사업(넥스트콤플렉스)’ 등 다양한 중심상업지역이 들어선다. 단지 남측으로 4차산업 관련 클러스터인 ‘스마트 위드업’도 계획 중이다. DL이앤씨는 다양한 특화 상품을 적용한다. ‘스마트 클린&amp;케어 솔루션’ 등 미세먼지 저감 시스템을 설치해 건강하고 스마트한 단지로 만든다. 또 e편한세상만의 역량이 집중된 새로운 라이프스타일 맞춤 평면 플랫폼 ‘C2 하우스’에 따라 기존 아파트와 차원이 다른 상품성도 선보인다. 스크린골프, 실내골프연습장, 피트니스, 사우나 등 커뮤니티시설과 테마길, 물빛정원 등 조경 시설도 차별화했다. 분양 관계자는 “검단신도시에서 희소성이 높은 1군 메이저 브랜드 아파트 단지인데다 신혼부부, 생애최초 등 특별공급의 비중이 커 3040세대 내 집 마련을 계획하고 있는 무주택자와 실수요자의 문의가 많다”고 밝혔다. 김도헌 기자 dohoney@donga.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.11.17. 오후 5:24</t>
+          <t>2021.11.24. 오후 3:56</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -509,17 +509,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>메이저 건설사 브랜드 상업시설 인기··· KCC건설, ‘레노부르크 프리미엄 에비뉴’</t>
+          <t>日 70개社, '일본판 디엠' 디지털 통화 시험 발행...내년 유통 목표</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>메이저 건설사 브랜드 상업시설, 입지여건과 상품 차별화로 인기KCC건설, ‘레노부르크 프리미엄 에비뉴’ 선보여배후수요 풍부하고 부천 대장신도시 수혜 기대되는 입지상품성 차별화 위한 특화설계 더해최근 상가 분양시장에서 메이저 건설사들이 시공에 나서는 브랜드 상업시설이 인기를 끌고 있다. 메이저 건설사들이 시공하는 브랜드 상업시설의 경우 각 건설사들이 그동안 쌓아온 명성과 함께 우수한 기술력과 설계 경험을 바탕으로 한 상품성을 갖춰 각지역을 대표하는 랜드마크 상업시설로 거듭나는 경우가 많기 때문이라는 분석이다.대형 건설사들은 시공능력은 물론 풍부한 배후수요를 확보하기 위해 사전 입지분석과 타당성 조사를 거쳐 사업을 진행한다. 또 자사 브랜드의 업무·주거단지와 함께 들어서는 경우도 많아 고정수요를 확보하기도 한다.업계관계자는 “메이저 건설사가 시공에 나서는 브랜드 상업시설의 경우 입지에 대한 사전 검토를 충실히 하고 차별화된 상품성을 갖추기 위해 많은 노력을 기울이기 때문에 각 지역을 대표하는 상업시설로 거듭나는 경우가 많다”며, “현대산업개발의 광교 엘리웨이, 호반건설의 판교 아비뉴프랑 등이 대표적인 예시”라고 말했다.이런 가운데, 부천 대장신도시의 수혜가 기대되는 입지에 1군 건설사인 KCC건설이 시공에 나서는 ‘레노부르크 프리미엄 에비뉴’가 분양 중이다.'레노부르크 프리미엄 에비뉴' 투시도레노부르크 프리미엄 에비뉴는 앞선 분양에서 단 하루 만에 전 실 마감을 이뤄낸 레노부르크 부천 지식산업센터 건물 내 1층과 2층에 들어서는 상업시설이다. 레노부르크 프리미엄 에비뉴가 조성되는 레노부르크 부천 지식산업센터는 경기도 부천시 오정동 일대에 지하 1층, 지상 7층의 연면적 약 3만8347㎡(1만1600여 평) 규모로 시공된다.레노부르크 프리미엄 에비뉴가 들어서는 부천시 오정동 798번지의 경우 앞으로는 부천 대장신도시 진입부 석천로 삼거리 대로변과 맞닿아 있고, 뒤로는 오정동 일대 오정일반산단, 서운일반산단 등 산업단지를 품은 곳이다. 때문에 당 상업시설은 향후 2만 가구의 입주가 예정되어 있는 대규모 택지지구인 대장신도시의 미래수요와 오정동 일대에 위치한 산업단지 종사자 3만5000여 명의 배후수요를 동시에 확보할 수 있다.뿐만 아니라 바로 앞 찬들공원과 굴포천 일대는 라이딩 명소로 알려져 있고, 주말 나들이 이용객들도 많아 평일·휴일 할 것 없이 상당한 수요가 레노부르크 프리미엄 에비뉴를 이용하게 될 것으로 전망된다.이에 더해 상가 1층은 ‘리테일 및 카페’ 존(Zone)으로 조성하여 베이커리, 패스트푸드, 편의점, 드럭스토어, 은행, 음식점, 카페 등 다양한 M/D를 구성할 예정이며, 2층은 해당 지역 일대에 희소성 높은 ‘다이닝 및 메디컬’ 존으로 조성해 보다 넓은 수요층이 이용할 수 있는 멀티복합상가로 발전시킬 계획이다.더불어 당 상업시설 내에는 루프탑 풋살장 및 바베큐장 등 특화 커뮤니티 시설이 계획돼 있어 주·야간을 불문하고 상업시설을 지나는 소비자들이 꾸준할 것으로 예상된다.한편, 레노부르크 프리미엄 에비뉴는 임대케어 시스템을 통한 임대전문가를 섭외해 시장과 상권 상황을 고려하고 분석해 임차계획을 수립, 투자자 임대위탁 상담 및 테넌트 매칭을 완료하는 사전 투자 관리 시스템을 운영해 투자자들의 공실 리스크를 낮출 계획이다.레노부르크 프리미엄 에비뉴 모델하우스는 경기도 부천시 오정동 일원에서 운영 중이다.한경닷컴 뉴스룸 open@hankyung.com</t>
+          <t>일본 3대 대형은행, NTT 등 참여   【도쿄=조은효 특파원】 일본의 3대 은행을 비롯해 총 70여개 기업들이 컨소시엄을 이뤄 '일본판 디엠'(페이스북의 스테이블 코인)을 시험 발행한다. 정식 발행과 유통은 내년 하반기가 목표다.   24일 니혼게이자이신문에 따르면 일본의 주요 기업들이 공동의 디지털 통화 결제 기반을 마련하기 위해 컨소시엄 형태로 내년 초에 실증 실험에 착수한다. 미쓰비시UFJ, 미즈호, 스미토모 등 일본의 3대 대형은행, 일본 대표 통신기업인 NTT 등이 지난해 6월 주도해 결성한 디지털 통화 컨소시엄은 당초 30개사에서 1년여만에 70개사로 증가했다. JR 동일본, 간사이 전력, 세븐&amp;아이 홀딩스 등이 명단에 이름을 올렸다.   이들이 발행할 디지털 통화의 명칭은 'DCJPY'(가칭)다. 기업간 전력거래 등 각종 결제에 실증실험이 진행될 예정이다. 이들이 발행할 '디지털 엔화'의 최소 거래 단위는 1엔이다. 미국 페이스북의 가상자산인 디엠과 유사한 형태인 스테이블 코인 형태가 될 것으로 전망된다.   일본 금융청은 이달 초 민간 기업이 발행할 디지털 통화에 대응하기 위해 이용자 보호 등 새 규제 방안을 수립할 것임을 예고했다.   이와 별도로 일본 중앙은행인 일본은행(BOJ)도 중앙은행 발행 디지털통화(CBDC)를 검토하고 있으나, 실제 발행에 대해서는 신중한 입장이다. 민간 기업들의 실증실험 결과를 본 뒤 결정할 것으로 보인다.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.11.17. 오후 5:24</t>
+          <t>2021.11.24. 오후 3:56</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -532,17 +532,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>'서울옆세권' 중심위치에 호재 갖춘 오피스 관심</t>
+          <t>檢,이재명 성남시장 시절 비서실장 소환. 윗선 수사 진행?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>향동지구 DMC스타팰리스서울 '옆세권' 일대 오피스에 관심이 몰리고 있다. 옆세권은 사람이 많이 모이는 장소인 핫 플레이스 옆 동네를 말한다. 보통 서울과 인접해 교통 및 편의시설 등 인프라는 모두 누리면서 행정상 경기도에 속해 부동산 비용은 합리적인 경우가 많다. 요즘 떠오르는 서울 옆세권으로 향동지구를 꼽는다. 향동지구는 서울 서북권에서 경기도 고양시로 뻗어 나가는 길목에 입지해 인근 상암DMC, 창릉신도시, 덕은지구는 물론 은평구까지 빠르게 이동이 가능하다. 향동지구 내 위치한 오피스도 마찬가지다. 향동지구에 입지한 오피스는 입지여건은 물론 향후 교통 호재로 인해 수요가 풍부해질 것으로 예상되기 때문이다.  업계 관계자는 "부동산에서 입지가 매우 중요한데, 오피스도 마찬가지다"라며 "입지가 뛰어나야 수요가 몰리고, 수요가 몰려야 높은 수익률을 기대할 수 있다"고 말했다. 향동지구에 있는 섹션오피스 'DMC스타팰리스'는 서울 옆세권의 입지적인 장점에 부동산 규제정책에서 비교적 자유로운 오피스 상품이다.향동지구 'DMC스타팰리스 ' 투시도이 단지는 지하 4층~지상 15층, 오피스 361실, 근린생활시설 17실 규모로 조성된다. DMC스타팰리스의 교통 여건은 백석~신사 간 도로 개통돼 일산~서대문구까지 이동이 수월하며 통일로 우회도로 준공 시 이를 통해 은평뉴타운, 지축지구 등 북측 주거지까지 빠르게 이동이 가능할 예정이다. 자유로, 제2자유로, 강변북로 진입도 수월해 서울 주요 권역까지 편리하게 이동할 수 있다.오피스 인근에는 고양선 향동지구역(2029년)이 개통될 예정이며, 가까운 거리에 서부선 경전철(2028년), 경의중앙선 향동역(2025년)과 GTX-A 창릉역(2024년)도 조성 예정에 있다. 특히 서부선 경전철이 개통되면 6호선(새절역), 2호선(신촌역), 1, 9호선(노량진역) 등과의 연결성이 개선돼 출퇴근 시간이 단축될 것으로 보인다. 분양 관계자는 "DMC스타팰리스는 서울 옆세권 입지인 데다 상품성과 투자가치에 대한 문의가 많다"며 "섹션오피스는 업무시설이어서 주택 수에 포함되지 않으며 분양권 전매도 가능한 데다 업종 제한이 없다"고 말했다.DMC스타팰리스는 3호선 원흥역 인근에서 홍보관을 운영 중이다.한경닷컴 뉴스룸 open@hankyung.com</t>
+          <t>서울중앙지검 대장동 개발 특혜·로비 의혹 전담수사팀은 24일 임승민 전 성남시장 비서실장을 참고인 신분으로 소환해 조사를 진행했다. 부산일보DB‘대장동 개발 특혜·로비 의혹’을 수사 중인 검찰이 이재명 더불어민주당 대선 후보의 성남시장 시절 비서실장을 소환했다. 검찰이 대장동 의혹과 관련한 이른바 ‘윗선’에 대한 수사에 신호탄을 쏴 올린 것이란 관측이 나온다.서울중앙지검 전담수사팀(팀장 김태훈 4차장검사)은 24일 오후 임승민 전 성남시장 비서실장을 참고인 신분으로 소환해 대장동 사업 의사결정 과정 전반을 확인하고 있다.임 전 실장은 2014년 7월부터 2년 가까이 당시 성남시장이던 이 후보를 보좌했던 측근 중 한 명이다. 그는 화천대유자산관리 대주주 김만배 씨 등이 유동규 당시 성남도시개발공사 기획본부장과 유착해 민관 합동 개발을 진행하던 시기에 비서실장으로 근무해 성남시의 대장동 사업 관여 정도를 잘 알 수 있는 인물로 꼽힌다.임 전 실장은 ‘대장동·제1공단 결합 도시개발사업 용역비 환수 계획 검토 보고’ 등의 문건에 협조자로 서명 날인을 하기도 한 것으로 알려졌다. 해당 문건의 최종 결재권자는 이 후보로 돼 있으며, 이 후보의 최측근인 정진상 당시 정책실장 역시 문서에 협조자로 서명 날인했다. 검찰은 임 전 실장을 상대로 성남시가 대장동 사업 과정에 어느 정도 영향력을 행사했는지 집중 조사할 것으로 보인다.법조계에서는 임 전 시장의 소환 조사를 시작으로 ‘윗선’에 대한 수사를 본격화할 것이란 관측이 나온다. 임 전 실장을 시작으로 정 전 실장 역시 수사 선상에 올릴 것으로 보인다. 성남시청 내부에서는 당시 이 후보에게 올라가는 중요 문서는 대부분 정 전 실장을 거쳐 보고됐다는 얘기가 흘러나왔다.정 전 실장은 황무성 초대 성남도개공 사장이 임기를 마치지 못하고 중도 사퇴할 때 영향력을 행사한 것으로도 의심받고 있어 검찰은 해당 부분에 대한 조사도 진행할 것으로 보인다.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.11.17. 오후 5:24</t>
+          <t>2021.11.24. 오후 3:56</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -555,17 +555,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>"어린이에게 꿈과 희망을"…삼척 어린이 과학놀이 체험관 조성</t>
+          <t>“젊은이들 망쳐” 인도, 민간 암호화폐 거래 금지 추진</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>삼척 어린이 과학놀이 체험관 조성사업 현장을 둘러보고 있는 김양호 시장. 삼척시 제공강원 삼척시가 어린이들에게 꿈과 희망을 심어주고, 행복한 도시를 조성하기 위해 어린이 과학놀이 체험관을 조성한다.17일 삼척시에 따르면 어린이 과학놀이 체험관 조성사업은 문화혜택 소외지역 어린이를 위해 생활SOC사업과 연계해 추진하는 사업이다. 노후된 동굴신비관에 총사업비 27억 원을 들여 지상 1층은 아동과 영유아들을 위한 놀이공간, 2층은 각종 미션 및 감성체험 공간으로 리모델링 한다.체험관은 이달 실시설계를 완료하고 공사에 착수해 내년 4월 준공을 목표로 추진할 방침이다. 김양호 시장은 이날 사업 현장을 점검하는 자리에서 "어린이 과학놀이 체험관은 인근 어린이 테마파크 조성사업과 연계해 시너지가 극대화 될 수 있도록 타 지역과 차별성 있는 인테리어 구성과 체험프로그램을 개발할 것"을 지시했다.갈야산 배수지 증설사업 현장을 둘러보고 있는 김양호 시장. 삼척시 제공이와 함께 시는 이날 갈야산 배수지 증설 사업장에 대한 현장점검도 실시했다.갈야산 배수지 증설사업은 대형아파트 신축 등으로 상수도 공급수요가 증가하고 있는 교동과 정라동 지역에 안정적인 수돗물 공급을 위해 사업비 13억 원을 투입해 기존 배수지용량을 1500톤에서 4800톤으로 증설하는 사업이다. 지난 10월 준공했으며 현재 시운전 중에 있다.</t>
+          <t>중국 이어 두번째ⓒGettyImagesBank인도 정부가 민간 암호화폐 거래 금지를 추진한다.23일(현지시간) 로이터 통신 등 외신에 따르면 인도 정부는 오는 29일 시작되는 동계 의회에서 ‘암호화폐 및 공식 디지털화폐 규제법안’을 상정할 예정이다.이 법안에는 인도에서 비트코인과 이더리움 등 대부분의 암호화폐를 금지한다는 내용이 담겼다. 다만 가상자산 관련 기초 기술을 확보하기 위해 특정 암호화폐는 허용한다.인도 정부는 그간 암호화폐가 자금 세탁이나 마약 거래 등 각종 범죄에 악용될 수 있다며 우려를 표했다. 나렌드라 모디 인도 총리도 지난 18일 암호화폐 관련 고위급 회의에서 “모든 민주국가는 암호화폐가 나쁜 세력의 손에 들어가지 않도록 함께 노력해야 한다”며 “암호화폐가 젊은이들을 망칠 수 있다”고 지적했다.로이터 통신은 현재 인도에 약 1500만~2000만 명의 암호화폐 투자자가 있다고 추산했다. 이들이 보유한 암호화폐 규모는 약 4000억 루피(약 6조 4000억 원)로 추정된다.인도는 중국에 이어 주요국 가운데 암호화폐 거래를 금지한 두 번째 국가다. 지난 9월 중국인민은행은 “암호화폐 거래는 불법적인 금융활동에 속한다”며 “채굴 사업을 엄격히 제한한다”고 밝혔다.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.11.17. 오후 5:24</t>
+          <t>2021.11.24. 오후 3:56</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -578,17 +578,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SK에코플랜트, 해상풍력플랜트 제조사 삼강엠앤티 4600억에 인수</t>
+          <t>포항시, 국제 크루즈 유치 추진…24일 크루즈관광 활성화 포럼</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>이 기사는 11월 17일 16:31 “마켓인사이트”에 게재된 기사입니다.SK에코플랜트(옛 SK건설)가 해상풍력 플랜트 건설 핵심 부품을 제조하는 삼강엠앤티에 총 4600억원을 투자해 최대주주로 올라섰다. 이번 인수로 친환경 에너지 분야로 꼽히는 해상풍력 플랜트 시장에 진출하게 됐다.SK에코플랜트는 17일 총 3426억원을 투자해 삼강엠엔티 지분 31.83%를 확보해 최대주주에 오른다고 공시했다. 삼강엠앤티가 단행한 2925억원 규모 제3자 배정 유상증자에 참여하고, 송무석 삼강엠앤티 대표 등이 보유한 구주를 500억원에 인수하는 방식이다.이와 동시에 SK에코플랜트는 삼강엠앤티가 발행하는 전환사채(CB)에도 1169억원을 투입한다. SK에코플랜트가 삼강엠엔티 인수 및 투자에 총 투입하는 현금 규모는 4595억원에 달한다.SK에코플랜트는 이번 M&amp;A로 친환경 해상풍력 발전 분야로 사업 영역을 확대하게 됐다. SK에코플랜트는 주력사업을 친환경·신재생 에너지 분야로 전환하기 위해 최근들어 폐기물사 및 친환경사들을 M&amp;A로 품었다. 삼강엠앤티는 해상풍력 발전용 터빈 제작에 활용하는 하부 구조물을 전문 제작하는 업체로 시가총액은 17일 종가 기준 8632억원이다.</t>
+          <t>24일 경북 포항에서 열린 ‘포항 크루즈관광 활성화 포럼’ 참석자들이 기념촬영을 하고 있다. 포항시 제공경북 포항시가 영일만항을 기항지로 국제 크루즈 유치에 나섰다.시는 크루즈 유치를 위해 크루즈 선사 및 여행사 대상 포트세일즈를 강화하고 영일만항, 일본 마이주르, 러시아 블라디보스토크를 잇는 환동해 국제 크루즈 삼각벨트 사업을 추진 중이다.영일만항은 올해 해양수산부 크루즈 기항지 홍보 홈페이지에 새로운 기항지로 추가됐다. 2019년 크루즈 시범운항 사업을 통해 기항지의 가능성을 보였다.지난해는 영일만항을 모항으로 일본과 러시아를 오가는 국제 크루즈 시범 운항을 계획했지만, 코로나19 확산으로 무산됐다.시는 위드 코로나를 맞아 24일 ‘포항 크루즈관광 활성화 포럼’을 열고 크루즈 유치를 재추진한다. 이날 포럼은 ‘위드 코로나 시대의 포항 크루즈산업 전략과 선택’이란 주제로 열렸다.주제발표에 앞서 하마오카 소이치 코스타크루즈 일본·한국 지사장은 특별강연에서 일본 카나자와, 마이즈루, 후쿠오카와 포항, 러시아 블라디보스토크를 연결하는 크루즈 항로 개설의 가능성을 제시했다.황진회 한국해양개발원 부연구위원은 ‘위드 코로나 시대 크루즈 동향과 포항 크루즈 발전방향’을, 김종남 대경대학교 교수는 ‘포항 크루즈 관광 진단과 지방정부의 발전전략’ 윤효진 코스타크루즈 한국지사 차장은 ‘포항의 해외크루즈 유치 및 내수 확대 전략’에 대해 주제발표를 했다.이어 진행된 토론에서는 포스트 코로나 이후 크루즈 시장의 변화와 포항의 관광지 및 상품개발에 대한 다양한 아이디어와 의견을 교환했다.시는 지난 23일에는 수도권 크루즈 전문여행사와 지역 여행사가 연계한 크루즈 상품개발을 위한 비즈니스 상담회를 개최했다.이강덕 포항시장은 “포항은 지리적 이점을 활용해 극동러시아와 일본 서안을 연결하면 유럽의 지중해와 같은 황금 크루즈 노선의 중심 도시가 될 수 있다”라고 말했다.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.11.17. 오후 5:24</t>
+          <t>2021.11.24. 오후 3:56</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -601,17 +601,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>빅데이터에 근거한 '코로노믹스' 분석과 전망은</t>
+          <t>한국동서발전, '올겨울 에너지를 부탁해' 캠페인 실시</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[경향신문] 데이터 경영학 전문가부터 빅데이터 분석 전문가, 코로나19를 취재한 기자, 산업통상자원부 공무원 등 전문가들이 ‘코로나19 이후 경제’인 코로노믹스(Coronomics; Corona+Economics)에 새로운 화두를 던졌다.신간 &lt;빅데이터 분석:코로노믹스 사례&gt;(도서출판 청람)는 데이터 경영학 전문가인 차의과학대학교 데이터경영학과 김용환 교수, 경기도일자리재단 임희정 박사가 경제경영 이론을 수립했고 빅데이터 분석 전문가 배용섭 박사가 실제 데이터로 이론을 강화했으며 파이낸셜뉴스 정명진 기자, 산업통상자원부 전성규 서기관, 한국수력원자력 신사업본부장 장필호 보건학 박사, 한국산업기술평가관리원 이창운 수석연구원이 데이터 분석에 참여했다.코로나19 장기화는 국가경제뿐만 아니라 주요 산업경제 및 기업들의 경영에도 새로운 접근방법에 더해 전략 및 계획을 필요하게 만들었다. 이로 인해 많은 기관과 유명학자들이 코로노믹스를 다양하게 조사·분석·연구하고 있다. 그러나 대부분 자료가 기존의 자료와 경험에 근거한 분석 및 전망일 뿐, 실질적으로 코로나 데이터 자료를 기반으로 분석한 자료가 미흡한 실정이다.이 책의 가장 큰 장점은 데이터를 근거로 분석을 진행했다는 것이다. 코로나팬데믹 시대를 코로노믹스로 소개해 다양한 사례 설명, 빅데이터 분석을 위한 기초 지식 소개, 코로나 데이터분석 모델 소개, 코로나 데이터 자료를 기반으로 주식시장과 가상화폐시장 분석, 확진자와 사망자별 산업별 분석과 보건산업의 주요 특징과 전망 분석 등이 포함돼 있다. 또한 현실에서 발생하는 코로노믹스의 다양한 분석자료를 통해 발생하는 주요 주식시장과 금시장 및 가상화폐, 그리고 주요 산업변화 특징을 분석해 소개했다.코스피지수, 코스피금액, 코스닥지수, 코스닥금액, 다우존스, 나스닥, S&amp;P500, 미국채권지수, 중국상해지수, 베트남VINI지수, 일본니케이지수, 비트코인, 이더리움, 금과의 상관관계를 분석했다. 분석을 위해 체계적인 분석과 다양한 분석 기법을 활용했다. △기초 통계 분석과 트렌드 분석 △주성분분석, 요인분석, 군집분석, 인공신경망분석 △상관분석과 회귀분석 등을 중점적으로 활용해 결과를 시각화해 도출했다. 대표 저자인 김용환 교수는 “이 책은 코로나19 실질적인 데이터를 토대로 분석을 했다는데 의미가 있다”면서 “코로나19가 현재진행형이므로 향후 2차 연구분석을 통해 전망 및 시나리오 분석을 진행할 것”이라고 밝혔다.저자들은 현실에서 발생하는 코로나 데이터 자료를 기반으로 빅데이터 분석방법론을 통해 코로노믹스의 다양한 분석자료를 소개하고자 하는 목적을 갖고 약 100만개의 코로나데이터 자료를 수집·저장·분류·가공·분석을 했다. 특히 대한민국과 관련이 많은 주요 13개 국가들의 코로나 데이터 자료를 기반으로 데이터 마이닝과 빅데이터분석 및 인공지능 분석 등을 통해 다양한 변수간의 변화 추이를 분석하고 그에 따른 전망과 특징을 구체화해 설명했다.김 교수는 “급변하는 디지털 시대를 준비하는 기업CEO와 정부기관 관계자, 그리고 대학 및 대학원 학생과 일반인에게 빅데이터 분석에 대한 다양한 지식과 분석방법론을 제공해 교재로서 활용하고자 것이 본 저서의 기본 목적이고 집필 방향”이라고 설명했다.</t>
+          <t>[사진 = 한국동서발전] 한국동서발전은 탄소중립 실천에 동참하기 위해 '올겨울 에너지를 부탁해' 캠페인을 실시한다고 24일 밝혔다.이 캠페인은 실내온도 20℃ 유지, 난방시 가습기 함께 사용, 외출시 보일러 외출모드 등 에너지를 절약하면서도 따뜻한 겨울을 보낼 수 있는 손쉬운 실천법을 공유해 탄소중립 생활실천 문화를 확산하기 위해 마련됐다.이날부터 공식 페이스북과 인스타그램에서 에너지 절약과 관련한 퀴즈이벤트를 진행해 정답자 중 추첨을 통해 음료 기프티콘을 증정한다.동서발전은 지역사회와 함께 폐플라스틱을 활용한 업사이클링 등 친환경 사회공헌활동도 펼친다. 임직원이 자발적으로 모은 폐플라스틱을 활용해 만든 장바구니, 재생화분 등 업사이클링 물품은 지역 아동복지센터, 복지시설 등에 기부할 예정이다.아울러 다음달 3일까지(오후 6시 마감)는 탄소흡수원 및 저탄소생활, 효율개선, 자원순환 등을 주제로 '2050 탄소중립 대국민 아이디어 공모'를 진행한다. 학생, 일반인 등 관심 있는 국민 누구나 참여할 수 있고, 동서발전 누리집에서 신청서 등을 내려받아 전자우편으로 제출하면 된다.김용기 동서발전 사회적가치추진실장은 "이번 캠페인은 겨울철 탄소배출을 줄이기 위한 일상 속 실천을 독려하기 위한 것"이라며, "지역사회 에너지 절약과 환경보호를 위한 캠페인을 꾸준히 이어가며 탄소중립 공감대를 확산하고 ESG경영을 적극 실천하겠다"고 말했다.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.11.17. 오후 5:24</t>
+          <t>2021.11.24. 오후 3:56</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -624,17 +624,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>"환경부, 월경용품 건강영향조사 결과 조속히 공개하라"</t>
+          <t>중소기업 비전발표회, 참석한 이재명</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>강은미 의원 소통관서 '월경권 보장' 촉구강은미 정의당 의원와 환경단체 등은 17일 서울 여의도 국회 소통관에서 '안전한 월경권 보장 및 월경용품 보편지급 촉구' 기자회견을 열었다. ⓒ홍수형 기자강은미 정의당 의원과 정의당 청소년위원회, 여성환경연대 등이 17일 서울 여의도 국회 소통관에서 '안전한 월경권 보장 및 월경 용품 보편지급 촉구' 기자회견을 열었다. 강은미 의원은 "2017년 일회용 생리대에 함유된 유해물질로 인해 여성의 건강권이 침해받고 있다는 문제가 드러나자, 환경부 등이 월경용품에 대한 건강영향조사를 실시했으나 그 결과를 공개하지 않고 있다"고 지적했다.환경부 등은 2018~21년 1·2차 생리대 등 월경용품에 대해 건강영향조사를 진행한 결과, 외음부의 가려움증·통증 등 생리 관련 증상 발생에 유의미한 영향을 미칠 수 있다는 나온 것으로 알려졌다. 정부는 이같은 결과를 지난 4월 확인했으나 6개월 넘게 공개하지 않고 있다.</t>
+          <t>이재명(왼쪽) 더불어민주당 대선후보가 24일 서울 여의도 중소기업중앙회에서 열린 중소기업 비전발표회에서 김기문 중기중앙회장의 인사말을 듣고 있다.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021.11.17. 오후 5:24</t>
+          <t>2021.11.24. 오후 3:56</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -647,17 +647,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>삼성SDI-서울대, 배터리 인재 육성...100명 이상 입사 지원</t>
+          <t>크래프톤, ‘배틀그라운드: 뉴스테이트’로 글로벌 시장 공략 가속화</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>삼성SDI가 서울대학교와 함께 배터리 인재 육성에 나선다.삼성SDI는 17일 서울대와 '서울대-삼성SDI 배터리 인재양성 과정(SSBT, SNU-Samsung SDI Battery Track)' 협약을 체결했다고 밝혔다.삼성SDI와 서울대는 'SSBT' 운영을 통해 배터리 소재·셀·시스템 분야의 핵심 인력을 양성한다는 계획이다. 서울대 재료공학부·화학생물공학부·전기정보공학부·기계공학부·화학부 등이 참여하며 재료공학부의 강기석 교수가 양성 과정 대표 교수를 맡는다.SSBT는 2022학년도부터 2031학년도까지 10년 동안 100명 이상의 삼성SDI 장학생을 선발한다. 석·박사 과정에 선발된 학생들은 배터리 과목 이수와 함께 관련 연구를 수행하며 삼성SDI에서 지원하는 연수 프로그램과 공모전에 참여할 수 있다.해당 과정을 이수하는 학생들에게는 학위 과정 등록금을 비롯한 별도의 개인 장학금이 지급되며 졸업과 동시에 삼성SDI에 입사하게 된다.17일 서울대에서 삼성SDI와 서울대가 서울대-삼성SDI 배터리 인재양성 과정 협약식을 진행했다. 이병호 서울대 공과대학 학장(왼쪽)과 장혁 삼성SDI 연구소장 장혁 부사장이 기념촬영을 하고 있다.이병호 교수는 “이번 업무협약은 차세대 이차전지 기술 개발을 선도할 핵심 인재 양성을 위한 서울대와 삼성SDI의 장기적 협력의 시작점”이라며 “학계와 산업계가 미래의 기술과 미래의 인재상을 함께 고민하고 함께 노력하는 새로운 기회로 만들어 갈 것”이라고 말했다.장혁 삼성SDI 부사장은 “세계적 수준의 연구 역량과 인재를 보유한 서울대와의 협약은 글로벌 시장에서의 배터리 경쟁력을 강화할 수 있는 밑거름이자 기회”라며 “배터리 산업을 이끌어 갈 인재들을 체계적으로 지원하고 양성하는 토대를 구축하겠다"고 말했다.한편, 서울대 서울 관악캠퍼스에서 열린 협약식에는 이병호 서울대 공과대학장, 하정익 기획부학장, 유웅열 재료공학부장 등을 비롯해 장혁 삼성SDI 연구소장(부사장), 장래혁 중대형 시스템 개발실장(부사장), 심의경 인사팀장(부사장) 등이 참석했다.</t>
+          <t>크래프톤이 배틀그라운드를 계승한 신작 ‘배틀그라운드: 뉴스테이트’를 통해 북미, 유럽 등 글로벌 이용자몰이에 나섰다.   크래프톤은 오픈월드 배틀로얄 게임 ‘배틀그라운드’를 통해 글로벌 7500만 장(PC, 콘솔 포함) 이상 판매고를 올리면서 ‘글로벌 시장에서 역대 최다 판매된 PC 게임’, ‘가장 빠르게 1억 달러 수익을 올린 스팀 Early Access 게임’ 등의 타이틀을 획득한 게임사다.  국내 토종 기업임에도 해외 매출 비중이 90% 이상을 차지하는 등 다른 게임사들과 다르게 해외 시장에서 꾸준히 사랑받고 있다. 최근에는 서구권 이용자들이 주목할 만한 모바일 신작 ‘배틀그라운드: 뉴스테이트’를 출시하고, 미국 유망 게임사 ‘언노운 월즈’를 인수하는 등 북미, 유럽 등 서구권 이용자 확대를 위한 청사진을 그리고 있다. 내년에는 미국 기반의 독립 스튜디오 스트라이킹 디스턴스 스튜디오가 신작 ‘칼리스토 프로토콜’의 출시도 앞두고 있다.●‘배틀그라운드: 뉴스테이트’, 서구권 모바일 배틀로얄 장르 흥행 문 여나크래프톤이 11일 출시한 모바일 배틀로얄 게임 ‘배틀그라운드: 뉴스테이트’는 출시 이틀 만에 누적 다운로드 1000만, 4일 만에 2000만을 돌파하는 등 초반 인기몰이에 성공했다. 한국, 미국, 독일, 인도, 사우디아라비아 등 전 세계 165개 국가에서 인기 게임 순위 1위를 기록하면서 배틀그라운드 IP의 세계적인 인기와 영향력을 다시 한번 입증했다.  ‘배틀그라운드: 뉴스테이트’는 배틀로얄 장르를 개척한 펍지 스튜디오가 직접 개발한 모바일 게임이다. PC, 콘솔 플랫폼에서 서비스 중인 ‘PUBG: 배틀그라운드’의 게임성과 세계관을 계승했으며, 독자적인 콘텐츠 및 차별화된 기술을 접목해 차세대 모바일 배틀로얄 게임의 이정표를 제시할 것을 목표로 했다.   특히 11일 진행된 실적발표 컨퍼런스콜에서 크래프톤이 “출시한 지 얼마 되지 않았지만, 현재 실시간으로 보면 미국 매출이 가장 높은 상황”이라고 발표했듯이 서구권에서의 초반 성적은 나쁘지 않은 것으로 보인다. 크래프톤 측은 서구권에서도 큰 인기를 얻을 수 있었던 배경으로 “지역에 맞춘 마케팅, 커뮤니티, 인플루언서 활동을 통해 각지 플레이어들에게 게임을 더 즐겁게 경험할 수 있도록 한 것이 효과를 봤다”고 말했다.●미국 게임 개발사 ‘언노운 월즈’ 인수로 북미 시장 영향력 강화크래프톤은 지난 10월 미국의 게임 개발사 언노운 월즈를 인수한다고 밝혔다. 크래프톤은 언노운 월즈 인수를 계기로 새로운 IP 확보와 북미 콘솔 게임 시장 공략을 위한 발판을 마련했다고 설명했다.   언노운 월즈는 2001년 미국에서 설립된 게임 개발사로, 탄탄한 팬 층과 게임 개발 능력을 보유하고 있다는 평가를 받고 있다다. 특히 하프라이프 MOD(Half-Life mod), 내추럴 셀렉션 시리즈(Natural Selection Series), 서브노티카(Subnautica), 서브노티카: 빌로우 제로(Subnautica: Below Zero) 등 독창적인 게임을 선보이며 새로운 장르를 개척해왔다.   크래프톤 측은 3분기 실적발표 컨퍼런스콜을 통해 “언노운 월즈의 3번째 IP가 될 PC 신작 역시 마치 배틀그라운드와 같이 새로운 장르를 여는, 장르를 정의하는 게임이 될 것으로 기대한다”고 말했다.   사실 크래프톤의 북미 시장 진출은 언노운 월즈의 인수가 처음이 아니다. 크래프톤의 독립 스튜디오 중 하나인 스트라이킹 디스턴스 스튜디오 역시 북미 지역에 기반한 스튜디오로, 2019년 크래프톤에 합류했다. 스트라이킹 디스턴스 스튜디오는 현재 2022년 출시를 목표로 차세대 서바이벌 호러 게임 ‘칼리스토 프로토콜’을 개발 중이다. AAA급 콘솔 타이틀로 개발 중인 칼리스토 프로토콜은 더 게임 어워드에서 예고편이 공개되자마자 팬들의 열광적인 지지를 받은 바 있다.   크래프톤은 국내 시장을 벗어나 글로벌 게임사로 발전하는 단계로 접어들었다. ‘배틀그라운드: 뉴스테이트’의 출시와 2022년 언노운 월즈와 스트라이킹 디스턴스 스튜디오를 통해 이어질 북미에서의 게임 출시가 크래프톤의 글로벌 활약의 기초가 될지 크래프톤의 성장에 게임업계의 이목이 집중되고 있다.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021.11.17. 오후 5:24</t>
+          <t>2021.11.24. 오후 3:56</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -670,17 +670,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>경북대 산학협력단, 2021 공공특허 기술이전 우수연구기관 선정</t>
+          <t>[마감시황] 기관 순매도에 코스피 3,000선 안착 실패</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>경북대 제공경북대 산학협력단이 '2021년 공공특허 기술이전 우수연구기관' 경상기술료 부문에 선정됐다. 이 상은 국내 대학 및 공공연구기관을 대상으로 기술이전 실적이 우수한 연구기관을 선발해 특허청장이 수여한다. 경북대 산학협력단은 △지식재산사업화 활성화를 위한 규정정비 △기술이전 전담조직 강화 △고품질 특허 창출 유도 및 부실특허 방지 제도 실시 등의 성과를 인정받았다. 경북대 김지현 산학협력단장은 "공공 연구성과가 기업에 이전되어 상용화되기 위해서는 연구기관의 지속적인 관심과 노력이 중요한데, 앞으로도 대학이 보유한 우수한 연구성과가 더 많은 기업에게 기술이전되어 상용화 될 수 있도록 특허 경영에 노력하겠다"고 밝혔다.</t>
+          <t>[서울경제] 코스피가 기관 매도세에 밀려 3,000선을 또 내주며 2,990선으로 내려 앉았다. 시가총액 상위주들은 대부분 약세 마감했다. 24일 한국거래소에 따르면 코스피지수는 전날보다 3.04포인트(0.10%) 내린 2,994.29에 거래를 마쳤다. 지수는 전날보다 9.01포인트(0.30%) 오른 3,006.34에 출발, 장중 한때 3,017.90까지 올랐지만 하락 전환했다.수급별로는 개인과 외국인이 각각 2,554억원, 3,058억원을 순매수했지만, 기관이 6,960억원을 팔아치우며 지수를 끌어내렸다. 코스피 시총 상위 종목 대부분이 약세로 마감했다. 삼성전자(005930)가 0.66% 내린 채 거래를 마감했으며 현대차(005380)(-1.40%), 네이버(NAVER(035420))(-1.25%), 삼성SDI(006400)(-1.09%), 삼성바이오로직스(207940)(-0.58%), 기아(000270)(-0.36%) 등도 하락 마감했다. 이재만 하나금융투자 연구원은 "국내 증시는 수급이 엇갈리는 가운데 신종 코로나바이러스 감염증(코로나19) 신규 확진자 급증에 따른 우려가 반영되며 혼조 흐름을 보였다"며 "연말 증시 변동성이 높아진 가운데 IT(정보기술) 업종을 중심으로 외국인 매수세 유입 지속 여부 등에 관심이 향할 것"이라고 말했다. 이날 코스닥지수는 전일 대비 6.41포인트(0.63%) 오른 1,020.13으로 마쳤다. 코스닥시장에서 개인은 1,032억원 순매도 했고, 외국인과 기관은 각각 831억원, 309억원 순매수 했다.이날 코스닥 시총 상위 종목들은 대부분 올랐다. 셀트리온헬스케어(091990)는 전일 대비 0.24% 올랐으며 에코프로비엠(247540)(2.21%), 펄어비스(263750)(2.97%), 엘앤에프(066970)(5.52%), 위메이드(112040)(1.41%), 셀트리온제약(0.74%), SK머티리얼즈(036490)(6.49%) 등도 상승 마감했다. 김석환 미래에셋증권 연구원은 "코스닥은 오전 1% 가까이 하락세를 보이다가 2차전지 업종 등 반발매수 유입 확대되며 낙폭을 축소하며 상승 전환했다"며 "쏠리드, 케이엠더블유 등 코스닥의 통신장비 업종이 강세를 보였다"고 말했다.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021.11.17. 오후 5:24</t>
+          <t>2021.11.24. 오후 3:56</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -693,17 +693,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>게임 비즈니스 혁신상 수상한 위메이드 신효정 사업부장[포토]</t>
+          <t>코나아이, 부산 양대 택시조합과 '동백택시' 관련 MOU 체결</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>(엑스포츠뉴스 부산, 박지영 기자) 17일 오후 부산광역시 우동 KNN 시어터에서 열린 '2021 대한민국 게임대상'에 참석한 위메이드 신효정 사업부장이 게임비즈니스혁신상(한국게임산업협회장상) 수상 후 소감을 밝히고 있다.</t>
+          <t>(왼쪽부터)변동훈 코나아이 부사장, 김호덕 부산개인택시운송사업조합 이사장, 장성호 부산택시운송사업조합 이사장이 협약식 후 기념촬영했다.코나아이는 부산광역시개인택시운송사업조합, 부산광역시택시운송사업조합과 '동백택시 플랫폼 운영을 위한 3자 업무협약(MOU)'을 맺었다고 24일 밝혔다.지난 23일 진행된 협약식에는 변동훈 코나아이 부사장을 비롯 김호덕 부산광역시개인택시운송사업조합 이사장, 장성호 부산광역시택시운송사업조합 이사장 등이 참석했다.이번 협약을 통해 △코나아이는 동백택시 및 기사님용 앱의 개발과 시스템 운영, 콜센터 운영 등 전반적인 서비스 운영과 기술지원을 제공하며 △각 택시조합은 기사회원 교육 및 안내 등 동백택시 서비스 품질 관리를 지원하기로 했다.이어 삼사는 기사회원 모집 및 등록, 서비스 안내 및 홍보 등 동백택시의 원활한 준비와 안정적인 운영을 위해 적극 협력하기로 했다.동백택시는 부산 지역화폐 플랫폼 '동백전' 기반 택시호출 서비스로 택시기사와 이용승객 호출중계 수수료가 무료다. 이용 승객은 동백전 결제를 통한 10% 캐시백 혜택을 받을 수 있으며, 별도 앱 설치나 회원가입 없이 동백전 앱에서 바로 서비스를 이용할 수 있다. 동백택시는 등록택시 2만4093대(개인택시 1만3833대, 법인 1만260대)를 대상으로 운영되며 이달 말 시범운영 후 올해 12월부터 정식 출범한다.변동훈 부사장은 “이번 업무협약을 통해 부산의 고유한 택시 브랜드 구축에 함께할 수 있게 돼 기쁘다”면서 “안정적인 서비스 운영을 통해 동백전 90만 회원과 부산 택시 업계 모두에게 도움이 되는 서비스를 만들 수 있도록 최선을 다할 것”이라고 말했다.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021.11.17. 오후 5:24</t>
+          <t>2021.11.24. 오후 3:56</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -716,17 +716,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5·18묘지 찾은 김동연 "대선 완주… 정치판 교체하겠다"</t>
+          <t>중소기업 정책 및 비전 발표하는 이재명 민주당 대선후보</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"총리 제의까지 받은 것 거절… 완주 의지 보여준 것"대권 도전을 선언한 김동연 전 경제부총리가 17일 오전 광주 북구 운정동 국립5·18민주묘지를 찾아 방명록을 작성하고 있다. 연합뉴스대권 도전을 선언한 김동연 전 경제부총리는 17일 "완주하지 않을 생각이었다면 현실과 타협했거나 편한 길을 갔을 것"이라고 밝혔다.'새로운 물결' 창당을 준비하고 있는 김 전 부총리는 이날 오후 광주시의회에서 기자회견을 하고 "거대 양당으로부터 작년 총선에 좋은 조건을 받았다. 금년 초 서울시장 보궐선거에서도 (출마) 권유받았다. 몇달 전 양당으로부터 대선 경선 들어오라는 제의를 받았고 총리 제의까지 받은 것을 거절했다"면서 "전부 마다하고 이 길을 택한 것은 완주 의지를 보여준 것이다"며 완주 의지를 강조했다.단일화에 대해서는 "정치공학과 세 유불리에 따라 뭉치고 헤어지는 이합집산 합종연횡에 관심 없다"며 "추구하는 정치 기득권 깨는 것과 새 (정치적) 기회 만드는 방향과 진정성에 동참하는 세력이라면 언제든 대화할 용의가 있다"고 가능성을 열어놨다.이어 그는 "제3지대가 성공하지 못한 이유는 두 가지"라며 "정치판 전체를 바꾸는 비전을 제시하지 않고 후보가 대통령 되는 데 중점을 뒀기 때문이다. 방법도 기존 정당을 따라서 하는 그런 모습을 보여 실패했다"고 했다.김 전 부총리는 "양당 구조와 40년 권력 분점 기득권 구조가 모든 문제의 근본 원인을 제공했다"며 "단순한 정권교체나 정권 연장의 틀을 뛰어넘는 세력과 정치판을 교체해야 한다"고 주장했다.그러면서 "양당 후보는 누가 되더라도 지금 정치판을 깨거나 교체하지 못한다. 기득권끼리의 바통 터치거나 기득권의 유지 확장"이라며 "이재명 후보가 광주 정신을 이어받는 후보인지 의심스럽다. (윤석열 후보는) 광주 정신을 폄훼했고 맞지 않는 이야기를 했다"고 평가했다.김 전 부총리는 앞서 국립 5·18민주묘지를 참배하고 행방불명자 묘소, 제2묘역, 광주시립묘지 민족민주열사묘역을 들렀다.구묘역에서는 바닥에 박힌 이른바 '전두환 비석'을 두 발로 밟은 채 서 있기도 했다.김 전 부총리는 5·18묘지 참배를 마치고 나서 기자들에게 "광주 정신을 이어받아 새로운 나라를 만드는 데 온 힘을 바치겠다"면서 "저와 새로운 물결이 양당 구도 정치, 경제, 교육을 개혁하겠다"고 했다.대권 도전을 선언한 김동연 전 경제부총리가 17일 오전 광주 북구 운정동 국립5·18민주묘지를 참배했다. 사진은 김 전 부총리가 남긴 방명록. 연합뉴스</t>
+          <t>이재명 더불어민주당 대선후보가 24일 서울 여의도 중소기업중앙회에서 열린 중소기업 비전발표회에서 중소기업 정책 및 비전에 대해 프레젠테이션하고 있다.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021.11.17. 오후 5:24</t>
+          <t>2021.11.24. 오후 3:56</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -739,17 +739,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SK에코플랜트, 삼강엠앤티 전격 인수</t>
+          <t>청소노동자와 인사하는 이재명 후보</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4600억 투자 최대주주로해상풍력사업 본격 진출SK에코플랜트(옛 SK건설)가 해상풍력 플랜트 제조사인 삼강엠앤티를 인수했다. 친환경 중심으로 사업 포트폴리오를 확장하고 ESG(환경·사회·지배구조) 경영을 강화하려는 SK그룹 파이낸셜 스토리 전략의 일환이다.SK에코플랜트는 삼강엠앤티의 2926억원 규모 제3자 배정 유상증자에 참여하고, 송무석 삼강엠앤티 대표 등이 보유한 구주를 500억원에 취득하는 등 3426억원을 투자해 지분 31.83%를 취득하기로 했다고 17일 공시했다. 삼강엠앤티 최대주주로 올라서 경영권을 확보했다. 또 삼강엠앤티가 발행하는 전환사채(CB) 1169억원을 매입하기로 해 투자금액은 4595억원에 달한다. 코스닥 상장사인 삼강엠앤티는 1999년 설립된 중견 조선·기자재 업체다. 2010년대 초반 해상 풍력발전 시장에 뛰어들었다. 삼강엠앤티가 제작하는 하부 구조물(재킷)은 상부 구조물인 터빈과 타워의 안정성을 담보하는 해상풍력의 핵심 설비다. 지난해 매출 4272억원, 영업이익 290억원을 올렸다.SK에코플랜트는 이번 인수를 통해 글로벌 해상풍력사업 진출을 본격화하겠다는 계획이다. 회사 관계자는 “해상풍력 시장에서 글로벌 경쟁력을 갖춘 삼강엠앤티를 앞세워 사업 영역을 친환경 에너지 분야로 확장한다는 방침”이라고 말했다.SK에코플랜트는 최태원 SK그룹 회장이 강조하는 파이낸셜 스토리를 앞세워 적극적인 변화를 시도하고 있다. 올 들어 폐기물 처리업체 아홉 곳을 연달아 인수하기도 했다. 지난 5월 사명을 SK건설에서 SK에코플랜트로 바꾸고 사업 포트폴리오를 건설에서 친환경 및 신재생에너지 사업으로 전환하고 있다.폐기물 처리 이어 해상풍력까지SK에코플랜트, 친환경 가속화SK에코플랜트(옛 SK건설)의 삼강엠앤티 인수는 친환경 사업 포트폴리오 확대와 대규모 투자자금 확보라는 두 회사의 이해관계가 맞아떨어진 결과라는 분석이다.해상풍력 플랜트 제조사인 삼강엠앤티는 작년부터 신재생에너지 열풍을 타고 시장에서 몸값이 크게 상승한 중견기업으로 꼽혀 왔다. 해상풍력의 하부구조물(재킷) 제작 분야에서 국내 최고 기술력을 보유하고 있다는 평가를 받고 있다. 2019년엔 세계 최대 해상풍력발전 기업인 덴마크의 외르스테드와 대규모 해상 구조물 공급 계약을 맺을 정도로 기술력을 인정받았다. 국내 기업이 해상풍력 하부구조물 수출에 성공한 건 삼강엠앤티가 처음이다. 외르스테드에 이어 덴마크 기업인 블라터, 벨기에 해상풍력 기업 JDN 등과의 계약도 잇따랐다.하지만 2017년부터 2019년까지 총 767억원의 영업손실을 낸 탓에 사업 확대를 위한 대규모 투자 여력이 크지 않다는 평가가 많았다. 이런 상황에서 SK에코플랜트가 구원투수로 등장한 것이다. SK그룹 관계자는 “주력 사업을 친환경 신사업으로 전환하려는 SK에코플랜드가 ‘파이낸셜 스토리’를 위해 인수합병(M&amp;A)에 나선 것”이라고 말했다.SK에코플랜트는 지난해 기존 주력 사업인 플랜트에서 벗어나 2023년까지 3조원을 친환경 신사업에 투자하겠다는 계획을 내놨다. 특히 폐기물 처리, 연료전지 등 신재생에너지 사업에 적극 나서고 있다. 지난 5월엔 사명까지 SK건설에서 SK에코플랜트로 바꿨다. 박경일 SK에코플랜트 사장(사진)은 “그룹 차원에서 추구하는 ESG(환경·사회·지배구조) 경영 방향에 맞춰 친환경 발전분야 사업 영역을 본격 강화할 계획”이라고 밝혔다. 지난달 열린 SK그룹의 CEO세미나에서 박 사장은 ‘ECO 기업으로 거듭나겠다’는 내용을 담은 파이낸셜 스토리를 발표하기도 했다.SK에코플랜트는 송무석 삼강엠앤티 대표 등 기존 경영진 체제를 유지할 것으로 알려졌다. 삼강엠앤티는 이번에 확보한 투자금으로 경남 고성군 고성조선해양산업특구 양촌·용정지구에 신규 공장을 설립할 계획이다.</t>
+          <t>ⓒ데일리안 박항구 기자[데일리안 = 박항구기자] 이재명 더불어민주당 대선 후보가 24일 서울 여의도 중소기업중앙회에서 열린 중소기업 정책 및 비전 발표에 참석하는 도중 청소노동자와 주먹인사를 나누고 있다. (공동취재사진)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021.11.17. 오후 5:24</t>
+          <t>2021.11.24. 오후 3:56</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -762,17 +762,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>부산진구, '전포어울더울 복합문화센터 건립 실시설계용역 최종보고회' 개최</t>
+          <t>이준석, 정의당에 "페미니스트 정당 선포한 것…공격하려면 민주당에 해야"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>부산 부산진구(구청장 서은숙)는 지난 16일 전포어울더울 복합문화센터 건립에 대한 설계용역 최종 보고회를 개최했다고 밝혔다.보육시설과 작은도서관 등이 포함된 생활SOC시설인 전포어울더울 복합문화센터는 부산진구 전포동 363-63번지 등 2필지에 지상3층, 연면적 697㎡ 규모로 건립될 예정으로 올해 초 건립계획 수립 후 6월에 설계자를 최종선정하였고, 올해 말 건축착공을 목표로 하고 있으며 12월 초에 설계용역을 마무리하고, 22년 지난달 완공을 목표로 본격적으로 사업을 추진할 예정이다.이날 보고회에서는 8월에 실시한 중간보고회의 의견을 반영한 설계 및 세부적인 사항에 대한 총괄보고가 이루어졌다. 서은숙 부산진구청장은 “향후 이용자들이 시설을 안전하고 편리하게 이용할 수 있도록 설계에 세심한 관심을 기울여 달라”라고 당부했다.</t>
+          <t>여경 흉기대응 두고는 "남녀 관계 없이 국민 재산과 생명 지킬 사람 임용해야"국민의힘 이준석 대표가 10일 오전 국내 최대 요소수 제조업체인 롯데정밀화학 울산사업장을 방문해 회사 관계자들과 간담회를 하고 있다. 연합뉴스이준석 국민의힘 대표가 연일 정의당과 페미니즘 관련 공방을 벌이고 있다.이 대표는 24일 페이스북에서 정의당이 '이준석식 안티페미'와 맞붙기 위해 류호정·장혜영 의원, 강민진 청년정의당 대표 등을 전면배치했다는 한 언론의 기사를 링크한 뒤 "말을 복잡하게 하는 재주가 있는데 안티페미랑 맞붙는 것이 아니라 님들이 그냥 페미니스트 정당을 선포한 것"이라고 썼다.그러면서 "이준석도 '이준석식 안티페미'가 뭔지 모르는데 그냥 님들이 가상의 적을 세워놓고 싸우려는 것"이라고 꼬집었다.또 "페미니스트 운동 하려면 주타격 방향은 민주당이 돼야지요. 차마 그건 못하겠지요?"라며 "진지하게 노동운동하던 분들 다 어디가고 정의당이 이런 방향으로 흘러가는지 참…"이라고 했다.최근 이 대표는 정의당 장혜영 의원과 데이트 폭력 여성 피살 사건과 여경의 흉기 대응을 놓고 설전을 벌였다.이 대표는 인천·양평 흉기난동 사건 당시 여성 경찰관의 부실 대응 논란이 확산하자 지난 22일 "국민은 남성·여성 관계없이 위기 상황에서 국민 재산과 생명을 지킬 경찰공무원 임용을 기대하고 있다"며 "치안활동 시 제압능력을 측정할 수 있는 체력검정 등은 성비를 맞추겠다는 정치적 목적 등을 기반으로 자격조건을 둘게 아니라 철저하게 국민 재산과 생명을 지킬 수 있는 최소한의 치안 능력을 확인하는 게 돼야 한다"고 발언했다.앞서 이 대표는 지난 21일에는 최근 발생한 데이트 폭력 사건과 관련해 장 의원이 "이별 통보했다고 칼로 찌르고 19층에서 밀어 죽이는 세상에서 여성들이 어떻게 페미니스트가 되지 않을 수 있나"라고 한 발언을 비판하며 "선거 때가 되니까 또 슬슬 이런저런 범죄를 페미니즘과 엮는 시도가 시작되고 있다"고 했다.이에 대해 장 의원은 페이스북 글에서 "또 하던 버릇 나온다. 젠더 갈등 조장하는 일등공신이 이런 소리하면 지나가던 개가 웃는다"며 "본인 권력욕의 만분의 일이라도 여성의 안전에 관심을 뒀다면 페미니즘을 엮네 하는 무식한 소리는 차마 못 하실 것"이라며 이 대표를 직격했다.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021.11.17. 오후 5:24</t>
+          <t>2021.11.24. 오후 3:56</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -785,17 +785,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kwon Oh-soo Arrested for Allegedly Manipulating the Share Price of Deutsch Motors: Prosecutors Expected to Accelerate In</t>
+          <t>'뒷심 부족' 코스피 3000선 밑에서 마감…시총 톱10 등락률 1% 안팎</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[경향신문] Kwon Oh-soo, who allegedly manipulated the share prices of Deutsch Motors, appears at the Seoul Central District Court for a hearing to review his arrest warrant, on November 16. Bak Min-gyu, Senior ReporterKwon Oh-soo, chairman of Deutsch Motors, was arrested on November 16 for suspicions of market manipulation--controlling the price of Deutsch Motors shares. This will likely add momentum to the investigation into Kim Keon-hee, the wife of People Power Party’s presidential candidate Yoon Seok-youl, for her involvement in the stock manipulation.Yi Se-chang, the chief judge overseeing warrants at the Seoul Central District Court, held a hearing on Kwon’s arrest warrant for allegedly violating the Financial Investment Services and Capital Markets Act this day and issued the warrant claiming that there was a risk of Kwon attempting to destroy evidence.Kwon is suspected of leaking insider information and mobilizing outside figures as “players” to illegally purchase 15.99 million shares to manipulate prices while serving as the CEO of Deutsch Motors as well as the company’s largest shareholder from 2009 to 2012. The press asked if he acknowledged the charges of market manipulation and if he knew Kim Keon-hee as he entered and exited the courtroom, but he refused to answer.Now that the prosecutors have detained Kwon, this is expected to add momentum to the investigation into Kim Keon-hee for allegedly providing the funds for Kwon’s stock manipulation in 2010-2011. On October 20, Yoon Seok-youl’s representative said, “We were introduced to a securities expert and put him in charge of our transactions, but we withdrew after suffering losses, and that is the whole truth.” If the prosecutors summon Kim, fierce opposition is expected from the People Power Party. So prosecutors are likely to secure as much evidence as possible to firmly support the charges before summoning Kim. If they are to charge Kim as an accomplice in market manipulation, they must prove that she was given a specific role and that she executed that role.Reportedly, Kim’s alleged involvement was not included in the request for the Kwon’s arrest warrant, which states his crimes, as well as in the indictments of other accomplices prosecuted earlier. This has some experts claiming that the prosecutors have yet to secure a decisive statement or evidence to prove that Kim was involved in the market manipulation. Others argue that the prosecutors may have left out details concerning Kim when stipulating the charges against Kwon to avoid political controversy. They claim the prosecutors could include charges connected to Kim when they indict Kwon. The prosecutors are expected to focus on whether Kim was aware of the market manipulation, how far she was involved in it, and what she received in exchange when questioning Kwon.The statement that Yi, who was involved in the stock manipulation as a “player,” gives to the prosecutors will also be important. Yi is the securities expert that Yoon’s representative mentioned was introduced to Yoon’s family. Kwon introduced Yi to Kim in February 2010, and reportedly, Yi managed Kim’s securities account which had a balance of approximately 1 billion won. He is noted as a key suspect who probably knows the most about the situation at the time. Yi disappeared and did not appear for a hearing to review his warrant on October 6. The court responded by issuing an arrest warrant claiming that Yi fled after his criminal allegations were disclosed. The prosecutors caught and arrested Yi on November 12.The prosecutors are also expected to question Yoon’s mother-in-law Choi (74) for allegedly matching orders for Deutsch Motors stocks. Matching orders refers to the trading of shares at a pre-determined volume, time, and price between the seller and the buyer to intentionally raise share prices and it is illegal. Recently, the prosecutors secured circumstantial evidence suggesting that Kim and Choi traded stocks at the same time.Prosecutors are also investigating the allegation that Covana Contents, an exhibition planning firm that Kim Keon-hee runs, received questionable sponsorships from dozens of companies, as well as the allegation that Kim purchased the convertible bonds of Deutsch Financial, a Deutsch Motors subsidiary, at a giveaway price in 2013.</t>
+          <t>유가증권시장서 기관 홀로 5923억원 순매도코스피지수가 기관의 순매도세에 밀려 결국 3000선 밑에서 마감했다.24일 코스피지수는 전일보다 3.04포인트(0.10%) 떨어진 2994.29에 장을 마쳤다. 지수는 전일 대비 9.01포인트(0.3%) 오른 3006.34로 장을 시작했다. 지수는 장중 한때 3017.90까지 치솟았지만 오전11시께 하락세로 전환, 장 마감 때까지 약세를 이어갔다.유가증권시장에서 개인과 외국인이 2402억원, 3166억원을 순매수한 반면 기관 홀로 5923억원을 순매도했다.뚜렷한 호·악재가 없는 가운데 지수는 3000선을 전후로 움직이다 약보합 마감을 한 모습이다.업종별로 살펴보면 금융업(1.24%), 비금속광물(0.91%), 보험(0.61%), 의료정밀(0.58%) 등이 강세를 보였다. 반면 철강(-1.24%), 운송장비(-0.82%), 운수창고(-0.62%) 등이 약세를 나타냈다. 이날 유가증권 시장에서는 간밤 미국 국채금리 상승으로 금융지주와 은행주 등이 강세를 보였다. 이에 국내 증시에서도 관련 업종이 힘을 받아 KB금융(0.88%), 하나금융지주(2.24%), 신한지주(1.21%), 기업은행(1.80%) 등이 1~2% 내외의 상승률을 기록했다.앞서 지난밤 뉴욕증시에서 10년물 국채금리는 1.65%를 기록, 전일 대비 2bp 넘게 더 뛰었다. 한때는 1.66%까지 오르며 지난달 25일 이후 최고치를 보이기도 했다. 연준의 통화정책에 민감한 2년물 국채금리는 4bp가량 오른 0.63%에서 거래됐다. 2년물 금리는 지난해 3월 초 이후 최고치를 경신했다.그 밖에 상위 시가총액 종목들은 모두 1% 안팎의 등락률을 보였다. 삼성전자(-0.66%), NAVER(-1.25%), 현대차(-1.40%) 등이 내렸고 SK하이닉스(0.42%), LG화학(0.95%) 등이 올랐다.한편 코스닥지수는 올랐다. 지수는 전일보다 6.41포인트(0.63%) 오른 1020.13로 마감했다. 개인 홀로 1026억원 순매도한 반면 외국인과 기관은 각각 831억원, 310억원을 사들였다.신종 코로나바이러스 감염증(코로나19) 확산세가 심해지면서 의료정밀 업종이 탄력을 받았다. 질병관리청 중앙방역대책본부에 따르면 이날 0시 기준 4116명의 신규 확진자가 발생, 누적 확진자 수는 42만5065명이 됐다. 이에 진단기기 업체 씨젠과 휴마시스는 각각 12.97%, 6.35% 급등 마감했다.김석환 미래에셋증권 연구원은 "현물에서 기관 매도세에 하락하는 가운데 코스닥은 오전 1% 가까이 하락세를 보이다가 2차전지 업종 등 반발매수 유입이 확대되며 낙폭을 줄이고 장중 상승 전환했다"며 "다만 내일 한국은행 금통위를 앞두고 관망심리가 지속되고 있다"고 밝혔다.원·달러 환율은 떨어졌다. 서울외환시장에서 원·달러 환율은 전일보다 3.2원 내린 1186.5원에 거래를 마쳤다.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021.11.17. 오후 5:24</t>
+          <t>2021.11.24. 오후 3:56</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -808,17 +808,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>남양주 헬스장 37명 확진…인근 병원 연관성 우려도(종합)</t>
+          <t>[마감시황] 코스피 소폭 하락…이틀째 3000선 하회</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>코로나19 신규 확진 3천187명 역대 두 번째(서울=연합뉴스) 황광모 기자 = 신종 코로나바이러스 감염증(코로나19) 신규 확진이 역대 두 번째인 3천187명을 기록한 17일 오전 서울 중구 서울역 광장 코로나19 임시선별진료소에서 의료진이 검사를 진행하고 있다. 2021.11.17 hkmpooh@yna.co.kr    (남양주=연합뉴스) 김도윤 기자 = 경기 남양주시는 진접읍 A헬스장과 관련된 신종 코로나바이러스 감염증(코로나19) 확진자 수가 37명에 달했다고 17일 밝혔다.    헬스장 이용자가 14명이고 가족 6명, 기타 17명 등이다.     이 헬스장에서는 지난 5일 이용자 1명이 확진된 데 이어 16일까지 36명이 추가로 양성 판정됐다.    보건당국은 이들의 접촉자를 파악하는 등 확산 차단에 총력을 기울이고 있다.    그러나 헬스장 회원이 380명을 넘어 확진자가 더 나올 가능성이 큰 상황이다.    게다가 헬스장 양성 판정자 중 1명이 입원했던 인근 B병원에서도 확진자가 잇따라 나와 우려를 낳고 있다.    B병원에서는 지난 9일 환자 보호자 1명이 확진된 데 이어 이날까지 환자와 직원 등 19명이 잇따라 양성 판정을 받았다.    이 병원 확진자 20명 가운데 15명은 헬스장 양성 판정자와 접촉한 것으로 조사돼 헬스장 관련 확진자로 분류됐다.    이에 따라 보건당국은 A헬스장과 B병원 관련 확진자들의 동선을 정밀하게 파악하는 등 역학 관계를 조사 중이다.    남양주시 관계자는 "헬스장과 병원 이용자 가운데 증상이 있으면 가까운 선별진료소에서 진단 검사를 받아달라"고 당부했다.    kyoon@yna.co.kr</t>
+          <t>[헤럴드경제=이세진 기자] 코스피가 소폭 하락하며 이틀째 3000선을 밑돌았다.24일 코스피는 전날보다 3.04포인트(0.10%) 내린 2,994.29에 장을 마쳤다.지수는 전장보다 9.01포인트(0.30%) 높은 3006.34에서 시작해 오름세를 보였으나 기관의 매도 폭이 커지며 약세로 돌아섰다.코스피 업종별로는 금융업(1.23%), 비금속광물(0.9%), 음식료품(0.43%), 화학(0.42%), 종이목재(0.36%) 등 업종이 강세를 보였고, 철강금속(-1.23%), 운수장비(-0.82%), 유통업(-0.60%) 업종이 약세를 보였다. 코스닥지수는 전장보다 6.41포인트(0.63%) 오른 1020.13에 마쳤다.지수는 전날 대비 1.51포인트(0.15%) 높은 1015.23에서 출발해 장중 하락하기도 했으나, 외국인의 순매수 전환에 힘입어 상승세로 마감했다.원달러 환율은 전날보다 3.2원(0.27%) 떨어진 1186.5원에 거래를 마쳤다. 국고채 3년물 금리는 0.01%포인트(0.64%) 오른 2.03%를 나타냈다.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021.11.17. 오후 5:23</t>
+          <t>2021.11.24. 오후 3:56</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -831,17 +831,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>'공수처 차장-與 접촉' 논란…"안부통화" vs "감찰하라"(종합)</t>
+          <t>경기도, 24일 수원전통문화관서 '경기 유니크 베뉴' 17개소 현판식</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>기사내용 요약"법사위 소속 의원 거부할 수 없는 현실""식사 제의 거절해…'부적절?' 근거 없어"野, 법사위서 공세…"정치 중립 지켜야"與, 여운국-野의원 통화 언급하며 역공도김진욱 "통화 자체가 오해 소지도, 유의"[서울=뉴시스] 최진석 기자 = 17일 서울 여의도 국회에서 열린 법제사법위원회 전체회의에서 김진욱 고위공직자범죄수사처장이 얼굴을 만지고 있다. (공동취재사진) 2021.11.17. photo@newsis.com[과천=뉴시스]김지훈 고가혜 하지현 기자 = 윤석열 국민의힘 후보가 검찰총장으로 재직했던 당시 검찰의 범여권 인사 고발사주 의혹 수사를 지휘하고 있는 고위공직자범죄수사처(공수처) 여운국 차장검사가 여당 의원과 통화하는 등 부적절한 접촉이 있었다는 보도와 관련, 공수처가 의혹을 정면으로 부인했다.공수처는 17일 해명 입장문을 통해 여당 의원과의 통화 경위와 내용 등을 밝히며 반박했다.공수처는 "공수처 차장은 수사뿐만 아니라 대국회 업무를 포함한 일반행정 업무 전반을 총괄하는 지위"라며 "이같은 지위와 현실에서 차장은 공수처를 통할하는 법사위 소속 의원의 전화를 회피하거나 거부할 수 없는 입장"이라고 전제했다.이어 "차장은 10월 공수처 국정감사가 끝난 직후 더불어민주당 소속 박모 의원의 전화를 받은 적이 있다"며 "안부를 묻고 답한 극히 짧은 시간의 대화였고, 대화 말미에 인사 차원에서 식사 약속 일정 제의를 완곡히 거절하다 날짜를 특정하지 못하고 유야무야 된 것이 전부"라고 밝혔다.특히 "대화에 수사 관련 내용은 일체 포함돼 있지 않았으며, 이미 해당 언론사 취재 요청에 밝힌대로 '22일 약속을 잡았다가 뒤늦게 취소했다'는 건 사실이 아니다"라며 "사적인 통화나 수사에 영향을 미치기 위한 '부적절한 접촉'으로 보는 것은 전혀 근거가 없다"고 반박했다.공수처는 "차장이 수사 중인 중요 사건의 주임검사임에도 지난 16일 법사위 예산소위에 참석해 2022년도 예산안에 대해 설명하고, 공수처법 개정안과 관련해 다시 국회를 찾아야 하는 등 기관 운영을 위해 국회 업무에 소홀함이 없도록 해야 하는 현실"이라고 강조했다.[서울=뉴시스]전진환 기자 = 여운국 고위공직자범죄수사처 차장이 지난 2월2일 오전 서울 여의도 국회 법제사법위원회 윤호중 위원장을 만나기 위해 위원장실로 들어서고 있다.  (공동취재사진) 2021.02.02. photo@newsis.com그러면서도 "공수처는 정치적 독립성과 중립성 확보를 가장 중요한 가치로 삼고 있다"며 "불필요한 정치적 오해를 사는 일이 없도록 노력하겠다"고 덧붙였다.논란은 이날 오후 국회에서 열린 법제사법위원회 전체회의에서도 계속됐다. 야당 법사위원들은 김진욱 공수처장에 '감찰'까지 요구하며 공세 수위를 높인 반면, 여당 법사위원들은 과도한 정치적 공세라고 맞섰다. 야당 간사인 윤한홍 국민의힘 의원은 김 처장에게 "감찰하라"고 촉구했다. 나아가 "여운국 처장은 수사 대상이다. 공무원은 정치 중립을 지켜야 한다. 수사기관에 있는 사람은 더, 지금은 선거철"이라고 목소리를 높였다. 김 처장은 "통화는 국감이 끝나고 박(성준) 의원이 전화해서 '수고 많았다', '살이 좀 빠진 것 같다'고 덕담을 한 것"이라며며 "통화는 1분 정도였다고 들었다. 그리고 시간 될 때 식사하자고 얘기했는데 수사 진행 중이라 그건 곤란하다고 했다"고 거듭 의혹을 일축했다. 통화 당사자로 지목된 박성준 더불어민주당 의원은 "국감이 끝나고 전화를 드렸다. 덕담으로 식사하자고 한 것"이라고 거듭 강조하며 "야당 의원이 공수처에 전화했다고, 김웅 의원 압수수색 때 항의전화 받았느냐"고 물으며 역공에 나섰다.[서울=뉴시스] 최진석 기자 = 김진욱(오른쪽) 고위공직자범죄수사처장이 17일 서울 여의도 국회에서 열린 법제사법위원회 전체회의에서 의원들의 질의에 답하고 있다. (공동취재사진) 2021.11.17. photo@newsis.com이날 공수처는 해명입장문에 여 차장이 국민의힘 권성동·전주혜 의원의 전화도 받은 사실이 있다는 내용을 넣었다가 이를 뺀 수정된 해명입장문을 재차 내기도 했다. 여 차장과 여당 의원의 통화가 특별할 게 없는 일이라는 점을 강조하기 위해 이같은 내용을 밝혔다가 불필요한 논란을 우려해 뺀 것으로 보인다. 전주혜 국민의힘 의원은 여 차장과의 통화와 관련해 "(김웅 의원실 압수수색 한 날) 9월10일 오후 4시 넘어 공수처 차장 부재중 전화가 있어서 통화한 것이다. 압수수색 일시 중단 상태를 잘 풀어보려고 국민의힘에 제안하는 내용을 저한테 전해왔다"며 "그런데 공수처에서 '야당도 전화한다'고 끌어들이는 건 부적절하다"고 지적했다. 김 처장은 "(여 차장·박 의원 통화에서) 수사 관련 내용은 없었지만 수사기관이 통화했다는 것 자체가 오해의 소지가 있다. 조금 더 유의하겠다"고 밝혔다.</t>
+          <t>수원전통문화관 진수원(珍羞圓)에서 열린 '경기 유니크 베뉴' 현판 기념식. / 사진제공=경기도경기도가 24일 수원전통문화관에서 이색 회의명소인 ‘경기 유니크 베뉴’ 17개소 선정 기념 현판식을 개최했다.이날 현판식에는 경기도의회 문화체육관광위원회 소속의 황수영 의원과 경기도, 수원시, 수원문화재단, 경기 유니크 베뉴 현장심사단 등 관계자들이 함께 참여했다. 행사에서는 경기 유니크 베뉴 브랜드 홍보영상 상영과 현판 기념식을 진행했다.유니크 베뉴(unique venue. 지역 이색 회의명소)란 전통적인 마이스(MICE: 회의, 포상관광, 컨벤션, 전시박람회) 회의시설인 컨벤션센터, 호텔 등이 아닌 전시복합산업 행사 개최지역의 독특한 정취나 색다른 매력을 느낄 수 있는 장소를 말한다. 도는 지난 8월 수원전통문화관 등 17개소를 ‘경기 유니크 베뉴’로 선정해 국제화 및 경쟁력 강화를 위한 다양한 지원 사업을 마련하고 있다.대표 현판식이 진행된 수원전통문화관은 한국의 전통문화 체험이 가능하고, 독특한 목조건물의 특성을 접목한 만큼 다양한 회의 행사 연출이 가능할 것으로 기대된다.황수영 경기도의원은 “코로나19의 대유행으로 마이스 업계가 매우 위축된 상황인데도 ‘경기 유니크 베뉴’라는 선도적인 트렌드를 제시하는 의미 있는 사업이 추진돼 매우 고무적”이라며 “경기도 관광·마이스 산업이 더욱 활성화될 수 있도록 도의회 차원에서도 지원을 아끼지 않겠다”고 밝혔다.최용훈 경기도 관광과장은 “이번 발굴된 ‘경기 유니크 베뉴’를 활용해 경기도 마이스 경쟁력을 키우고 다양한 규모의 회의 행사를 유치해 나가겠다”며 “계속해서 도내 숨어있는 지역 이색 회의명소를 발굴·육성할 계획”이라고 말했다. 한편, 경기 유니크 베뉴 17개소는 ▲아시아출판문화정보센터(파주) ▲한국민속촌(용인) ▲수원전통문화관(수원) ▲허브아일랜드(포천) ▲신구대학교식물원(성남) ▲더힐하우스(양평) ▲쁘띠프랑스(가평) ▲아트벙커B39(부천) ▲마이다스호텔 앤 리조트(가평) ▲현대 모터스튜디오 고양(고양) ▲원마운트(고양) ▲광명동굴(광명) ▲김포 현대크루즈(김포) ▲에버랜드 리조트(용인) ▲DMZ생태관광지원센터(파주) ▲캠프그리브스 유스호스텔(파주) ▲남양성모성지(화성) 등이다.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021.11.17. 오후 5:23</t>
+          <t>2021.11.24. 오후 3:55</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -854,17 +854,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>"영부인도 국격, 두 아이 엄마 vs. 토리엄마"…윤석열 향해 공세 펼치는 與</t>
+          <t>"다음 뉴스 '추천' 사라진다"… 카카오, 구독형 서비스로 전환</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>송영길 "공식석상 나타나지 않는 건 예의 아냐"이재명 더불어민주당 대선 후보 부인 김혜경 씨와 윤석열 국민의힘 대선 후보 부인 김건희 씨(왼쪽부터). / 사진=한준호 페이스북 캡처이재명 더불어민주당 대선후보의 수행실장인 한준호 의원이 이 후보의 부인 김혜경 씨와 윤석열 국민의힘 대선 후보의 부인 김건희 씨를 비교하며 "영부인도 국격을 대변한다"고 밝혔다.17일 한 의원은 자신의 페이스북에 ▲도이치모터스 주가조작 개입 사건 ▲김건희 씨 운영 코바나콘텐츠의 불법 협찬 사건 ▲허위 학력 제출 의혹 ▲'Yuji' 논문 등 김건희 씨에 제기되는 의혹들을 열거하며 "범죄 혐의 가족을 청와대 안주인으로 모셔야 하겠느냐"라고 지적했다.이 과정에서 한 의원은 "'두 아이의 엄마' 김혜경 VS '토리 엄마' 김건희"라는 표현을 썼다 지운 것으로 알려져 논란이 일기도 했다.한 의원 뿐만 아니라 이날 민주당은 윤 후보의 부인 김씨에 대한 집중 공세를 펼쳤다. 송영길 더불어민주당 대표는 이날 오전 국회에서 열린 민주당 상임선대위원장 주재 총괄본부장단 회의에서 "김건희 씨가 현재 공식 석상에 전혀 나타나지 않고 있다. 대선 후보의 배우자로서 대단히 부적절하고 국민에 대한 예의가 아니다"라고 비판했다.이어 "김건희 씨는 본인을 향해 제기되는 모든 의문에 직접 소상히 해명하고 국민 앞에 나서야 한다"며 "수사 기관도 김건희 씨에 대한 직접 조사를 즉각 시행해 달라"고 목소리를 높였다.또 윤 후보를 함께 겨냥하며 "본인과 일가의 악질적 비리 혐의에 대해 윤 후보는 침묵으로 일관 중이다. 내로남불이 유체이탈급"이라며 "대한민국의 얼굴을 대표하는 대통령과 그 부인의 문제는 국민적 검증의 대상이 돼야 한다"고 덧붙였다.한편 전날(16일) 김재원 국민의힘 최고위원은 CBS 라디오에 출연해 김건희 씨에 대해 "사회적으로 굉장히 사교성이 있다고 들었다"며 "약간 늦어지지만 불원 간에 그런(퍼스트레이디) 활동을 하지 않겠나"라며 김씨가 곧 활동에 나설 것으로 내다봤다.</t>
+          <t>카카오가 기존 다음 뉴스 기사 배열 서비스와 랭킹 서비스를 종료하고 구독 서비스 모델로 전환한다. 사진은 카카오 본사의 모습. /사진제공=카카오카카오가 알고리즘 추천 방식으로 진행되던 다음 뉴스 기사 배열 서비스와 랭킹 서비스를 종료하고 구독 서비스 모델로 전환한다.   24일 카카오는 콘텐츠 제휴 언론사를 상대로 '다음 뉴스 서비스 개편 온라인 설명회'를 진행하고 기존 알고리즘 추천 및 랭킹 방식 뉴스 서비스를 종료한다고 전했다. 이로써 다음 포털 첫 화면에 제공되던 뉴스 서비스는 사라질 예정이다.    카카오는 언론사의 다양한 기사들이 알려질 기회를 만들기 위해 '발견'탭을 운영한다. 아울러 이용자가 직접 구독한 채널의 보드만 모아 볼 수 있는 '마이(My)뷰' 탭을 신설하고 뉴스를 모아볼 수 있는 '뉴스' 탭도 제공한다. '뷰'는 누구나 에디터로서 자신의 관점으로 콘텐츠를 발행하고 취향에 맞는 콘텐츠를 능동적으로 발견해 소비할 수 있는 서비스다.   카카오는 그동안 알고리즘 방식으로 뉴스 배열 서비스를 제공했지만 이용자의 선택권을 보장하는 차원에서 구독형 서비스로의 전환을 추진해왔다. 그 일환으로 지난 8월 카카오톡에 콘텐츠 큐레이션 서비스 '뷰'를 선보였다. 내년 1월 모바일 다음에도 '뷰' 서비스를 확대 적용할 방침이다.    카카오측은 "이번 개편을 통해 콘텐츠를 유통하는 것에서 더 나아가 언론사가 구독자와 관계를 맺고 양방향으로 소통하며 유대감을 형성할 수 있는 생태계를 조성하고자 한다"며 "앞으로 다양한 콘텐츠 비즈니스가 가능하도록 관계형 도구 및 유료모델 등을 도입해 끊임없이 서비스를 발전시켜 나갈 것"이라고 말했다.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021.11.17. 오후 5:23</t>
+          <t>2021.11.24. 오후 3:55</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -877,17 +877,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>오세훈 "박원순 지우기는 오해…기득권 단체엔 자괴감"(종합)</t>
+          <t>현대차 '채용 특전' 미래차 R&amp;D 인재 키운다..700명 선발</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>기사내용 요약"전임 시장 지우기라는 오해 많은데 절대 아냐…억울""노들섬 감사, 바람직하지 않은 일들 벌어지고 있어""민간 단체 예산 삭감, 시민단체 표방 기득권 단체 반발" [서울=뉴시스] 고승민 기자 = 오세훈 서울시장이 지난 16일 서울시의회에서 열린 제303회 정례회 제2차 본회의 시정질문에서 김경 더불어민주당 시의원 질문에 답하고 있다. 2021.11.16. kkssmm99@newsis.com[서울=뉴시스] 조현아 하종민 기자 = 오세훈 서울시장이 박원순 전 시장 때 추진된 한강대교 공중 보행교(백년다리) 조성 사업을 중단한 것과 관련해 "박원순 시장 지우기가 아니다"라고 일축했다. 오 시장은 17일 서울시의회 시정질문에서 '국가상징거리 조성을 핑계로 백년다리 사업을 중단한게 전임 시장의 업적 지우기 아니냐'는 더불어민주당 박기열 시의원의 질의에 "절대 아니다"라며 이같이 밝혔다.그는 "결과적으로 감사까지 하니까 전임시장이 한 것을 하지 않으려는 시도 아니냐고 느끼는 것 같은데 저 사업이 있는지도 몰랐고 지속 가능성에 대해 깊이 고민한 적도 없다"며 "존재를 모를 때, 사실 첫 보고를 받았을 때부터 부정적인 느낌을 받았다"고 강조했다.오 시장은 "이 사업뿐 아니라 그런 느낌을 받는 사업이 많다"며 "'전임 시장 지우기'라는 오해를 많이 받는데, 전임 시장 때는 힘차게 추진된 사업이 브레이크가 걸린다고 해서 '오세훈이 싫어서 브레이크를 건다'고 하는 것은 억울하다"고 말했다.그러면서 "저는 전임 시장님 의지가 너무 강해서 공무원도 마지못해 동의하고 그렇게 느꼈다"며 "전임 시장이 절실히 원하는 사업을 해당 간부들이나 공무원들이 부정적으로 했겠냐"고 했다.백년다리 사업은 한강대교 남단에 보행자 전용교를 조성하는 사업으로 박 전 시장 재임 시절 노들섬의 보행 접근성을 높이기 위해 추진됐다. 그러나 서울시는 올해 착공 직전 국가상징거리 조성 계획 등과 연계해 종합적인 마스터플랜을 재검토해야 한다는 이유로 공사를 일시 중단했다.오 시장은 노들섬 복합문화공간에 대해 "지난 8월 현장을 방문했는데 마음이 많이 아팠다"며 "이 공간을 바꿔 활용도를 높이고 싶은데 불행하게도 2~3년 전에 새로운 건물이 들어서 새롭게 뭘 하긴 그래서 격려만 하고 온 기억이 있는데, 우연하게도 방문한 이후 감사에 들어갔다. 감사에 들어간건 계기가 있는데 바람직하지 않은 일들이 벌어지고 있다"고 말했다.서울시는 최근 노들섬 복합문화공간 사업에 대한 감사를 벌여 민간 위탁 운영사의 횡령 혐의를 파악해 경찰에 고발한 상태다. 당초 노들섬은 오 시장이 2006년 '한강 르네상스' 프로젝트의 일환으로 오페라하우스를 조성하려던 곳이다. 그러나 타당성 부족 등의 이유로 사업이 최종 보류됐고, 박 전 시장 취임 이후 현재의 대중음악 공연장 중심의 복합문화공간으로 조성됐다.오 시장은 '서울시 바로세우기'에 강하게 반발하는 일부 민간위탁·보조금 단체에 대해서는 "시민단체를 표방한 '기득권 단체'"라며 강력 비판했다. 그는 "전임 시장 시절 시민사회 활성화에 지원한 많은 액수의 예산이 있는데, 과연 당초 표방했던 대로 효율적으로 다 쓰였는지에 대해서는 많은 시민들이 정확히 실상을 알고 있다"며 "일부 사업비를 조정했더니 시민단체를 표방한 기득권 단체의 반발이 심하다"고 지적했다. 오 시장은 "본인들이 서울시민 전체를 대표한다고 자부할 수 있는지, 감사 내용 중 일부가 밝혀졌는데 시민들이 보고 있으면 매우 분노할 것"이라며 "기득권 단체들이 사업을 계속해야 하겠다는 그런 의지를 표명하는 모습을 보면서 큰 자괴감을 느낀다"고 비판했다. 그러면서 "건강한 시민단체를 운영하기 위해 애쓰는 시민단체에는 깊이 죄송하다는 사과의 말씀을 드린다"며 "이러한 문제 제기가 진정한 의미에서 건강한 시민단체를 보호하고, 건강한 시민단체와 기득권 단체를 구분할 수 있는 혜안이 생길 수 있도록 할 것"이라고 말했다. 오 시장은 또 시민사회 예산 부담과 관련해 "(박 전 시장 시절) 시민사회를 활성화한다는 목표로 시민사회 지원을 강화했는데, 대부분 자치구가 계회을 세우기 전에 서울시가 먼저 나서다보니 대부분 시가 예산을 부담하는 형태"라며 "상대적으로 재정이 여유로운 자치구나 교육청이 부담해줬으면 한다"고 말했다.</t>
+          <t>/사진제공=현대차현대자동차가 미래 자동차 산업을 이끌어갈 인재를 키운다.현대차는 차량 전동화와 자율주행차 분야의 국가경쟁력 강화를 지원하기 위해 국내 이공계 대학(원)생을 대상으로 'H-모빌리티 클래스' 참가자를 모집한다고 24일 밝혔다.H-모빌리티 클래스는 미래 자동차 분야의 핵심 기술을 배워볼 수 있는 기회를 제공하는 전문 교육 프로그램이다. 지난해 7월 차량 전동화 분야 1기 500명을 시작으로 올해 6월 차량 전동화 분야 2기 500명, 자율주행차 분야 1기 350명 등 1350명의 인원을 선발했다. 현대차는 이번 모집을 통해 차량 전동화 분야 350명, 자율주행 분야 350명 등 내년 상반기 프로그램 참가자로 이공계 대학(원)생 700명을 뽑을 예정이다. 다음달 10일 오전 10시까지 모집 홈페이지를 통해 참가 신청을 받는다.현대차는 선발된 교육생을 대상으로 배터리·모터 등 차량 전동화와 제어·네트워크 등 자율주행 분야의 전문 지식을 배울 수 있는 온라인 강의를 무상으로 제공한다. 기본 과정 수료 및 평가 합격 교육생에겐 현대차·현대엔지비 명의의 '직무능력 인증서'가 수여된다. 또 기본 과정 수료 후 심화 과정을 수강하는 교육생 가운데 우수 학습자로 선발되면 추후 현대차 연구개발본부 채용 지원 시 서류전형이 면제된다.현대차 관계자는 "'H-모빌리티 클래스'가 미래차와 관련된 R&amp;D 핵심 기술을 접하고 배워볼 수 있는 좋은 기회가 되길 바란다"며 "앞으로도 미래 인재 양성을 돕는 다양한 프로그램을 마련하겠다"고 말했다.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021.11.17. 오후 5:23</t>
+          <t>2021.11.24. 오후 3:55</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -900,17 +900,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>'이재명 예산' 밀어붙이는 與, 정부·야당과 갈등 격화(종합)</t>
+          <t>"유럽 재확산, AZ 접종률 낮은 탓"…논란된 소리오 CEO 주장</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>與 "예산안 반드시 반영" 野 "폭거 점입가경, 국민 기만행위"與 "예산 갑질" 비판에 홍남기 "유감, 원칙 견지"…당내선 우려 목소리더불어민주당 상임선거대책위원장인 송영길 대표가 17일 서울 여의도 국회에서 열린 선대위 총괄본부장단 회의를 주재하고 있다. 2021.11.17/뉴스1 © News1 구윤성 기자(서울=뉴스1) 한재준 기자 = 더불어민주당이 '이재명표 3종 패키지(일상회복 지원금·손실보상·지역화폐)' 예산 반영을 주장하며 연일 정부와 대립각을 세우고 있다. 동시에 민주당은 국민의힘에 전 국민 지원금과 윤석열 국민의힘 대선 후보의 50조원 손실보상을 협상 테이블에 함께 올리자며 압박을 이어나가고 있다.◇與 "협상 테이블 나와라" 野 "전 국민 지원금 수용 못해"민주당 중앙선거대책위원회 공동선대위원장인 윤호중 원내대표는 17일 오전 국회에서 열린 선대위 총괄본부장단 회의에서 "예산 국회가 2주밖에 안 남았다"며 "내년 상반기 정치 일정을 고려하면 이재명의 (전 국민 지원금) 25조원과 윤석열의 (손실보상) 50조원 논의를 바로 시작해 이번 예산안에 반드시 반영해야 할 것"이라고 밝혔다.윤 원내대표는 "저희는 가능한 재원방안을 마련하고 일상회복 지원금, 지역화폐 확대, 소상공인 손실보상 확대 3대 패키지 준비를 마치고 논의를 기다리겠다"며 "더 이상 시간을 끌면 국민께선 윤 후보의 50조원 지급 공약의 진정성 자체를 의심할 것"이라고 말했다.이어 "아무리 국민의힘이 민생외면, 정쟁 특화 정당이라고 하지만 50조원 손실보상을 후보가 공약으로 내걸었으면 민생에 대해 하는 척 시늉이라도 해야 하는 것 아니냐"라며 "야당 원내대표도 더 이상 끼어들기 하지 말고 오늘이라도 대안을 들고 협상 테이블로 나오길 바란다"고 압박했다.민주당은 전 국민 일상회복 지원금의 1인당 지급액을 20만~25만원 정도로 검토하고 정부, 야당과 협상에 나서겠다는 계획이다. 앞서 윤 원내대표는 전 국민 지원금과 지역화폐, 손실보상 예산 등에 추가로 필요한 예산을 16조~17조원으로 추산한 바 있다.고용진 민주당 수석대변인은 이날 국회에서 기자들과 만나 "(1인당 지급액을) 20만원에서 25만원 규모로 조정해서, 그 정도로 가자는 게 후보와 당이 조율한 입장"이라며 "25만원대, 20만원대의 소요 재정을 분석해 야당과 정부와 협의해 (인당 지급액을) 정하게 될 것"이라고 설명했다.김기현 국민의힘 원내대표가 17일 국회에서 긴급기자회견을 열고 '정부의 초과세수에 대한 여당의 압박'을 지적하며 "국가재정법에 따른 국채상환 등이 우선되어야 한다＂ 밝히고 있다. 2021.11.17/뉴스1 © News1 이동해 기자이에 야당은 손실보상 예산 외에는 내년 예산안 반영에 동의할 수 없다며 맞섰다. 김기현 국민의힘 원내대표는 이날 국회에서 긴급 기자회견을 열어 윤 원내대표가 초과세수 문제와 관련한 기재부 국정조사를 언급한 것에 대해 "집권여당의 기획재정부에 대한 국정조사(국조) 협박은 완전한 블랙코미디"라고 직격했다. 김 원내대표는 "아직 사용되지 않은 초과세수는 8조7000억원 가량"이라며 "국가재정법 90조에 따라 초과세수 30%는 국채상환에 우선 사용돼야 한다"고 설명했다. 이어 "같은 법에 따라 초과세수 40%는 지방교부금, 지방교육재정교부금 등으로 지방에 내려보내야 해 초과세수 전체가 마치 재난금 재원으로 사용할 수 있다고 주장하는 것은 국민 기만행위"라고 꼬집었다. 강민국 국민의힘 원내대변인도 이날 논평을 통해 "이재명 후보의 하명을 위해 물불 안 가리는 민주당의 폭거가 점입가경"이라며 "선거 승리를 위해서라면 온갖 책략도 서슴지 않는 민주당은 이미 기재부를 있으나 마나 한 존재로 만들었다"고 직격했다. 그러면서 "정부를 겁박해 얻어 낸 초과세수는 협의 대상이 아님을 분명히 밝힌다"며 "민주당은 야당에 회담을 제안할 것이 아니라 기재부와 초과세수 사용 여부 먼저 합의하는 것이 순서"라고 지적했다. 송언석 국민의힘 의원은 이날 라디오 인터뷰에서 '전 국민 지원금과 지역화폐 예산은 수용할 수 없냐'는 질문에 "그렇다"라며 "자영업자, 소상공인 손실이 굉장히 많다. 그 부분은 충분한 보상이 필요한데 예산이 반영이 제대로 안 돼 있다. 미래세대나 취약계층, 농민에 대한 예산도 불충분하다"고 손실보상 예산 증액을 주장했다.더불어민주당 공동선대위원장인 윤호중 원내대표가 17일 서울 여의도 국회에서 열린 선대위 총괄본부장단 회의에서 발언하고 있다. 2021.11.17/뉴스1 © News1 구윤성 기자◇與 "기재부, 예산 갑질 말라" 홍남기 "국조 발언 유감" 민주당은 '이재명표 예산'과 윤 후보의 50조원 손실보상을 여야 원내대표가 논의하자고 재촉하는 동시에 정부에 대한 쓴소리도 이어갔다.민주당 선대위 공동수석부본부장인 전재수 의원은 이날 MBC 라디오 '김종배의 시선집중'에 출연해 초과세수와 관련 "지금 확인된 게 31조5000억원에서 무려 19조원의 세수가 더 들어오는 것으로, 그러면 세수 오차율이 15%가 된다"며 "세수오차율이 15%를 넘는다는 것은 예산을 가지고 (기획재정부가) 갑질하는 것"이라고 쏘아붙였다.전 의원은 국가재정법에 따른 19조원의 초과세수를 지방교부금, 국가채무 상환 등에 사용하면 5조6000억원 정도가 남는다고 설명하며 "방역지원금은 국민 1인당 20만원씩 하고, 지방정부가 부담해야 할 몫을 빼면 (예산이) 8조원 정도가 된다"고 말했다.이어 "기재부가 끝까지 동의하지 않으면 지금 국회로 넘어와 있는 604조4000억원의 예산을 넘어설 순 없지만 기재부가 계속해서 그 입장(반대 입장)을 견지하기 어려울 것"이라고 경고했다.전날(16일) 윤 원내대표가 초과세수를 두고 기재부 국정조사까지 거론하며 강하게 압박한 데 이어 이날도 정부를 향한 공격이 계속되자 재정당국 수장인 홍남기 부총리 겸 기획재정부 장관도 불편한 기색을 내비쳤다.홍남기 부총리 겸 기획재정부 장관이 17일 서울 종로구 정부서울청사에서 열린 소재·부품·장비 경쟁력강화위원회를 주재하며 발언하고 있다.2021.11.17/뉴스1 © News1 송원영 기자홍 부총리는 이날 오전 생활물가 점검 일정을 마치고 기자들과 만나 '초과세수 고의 축소' 의혹을 제기한 민주당을 향해 "초과세수 발생 등 세수 오차에 대해선 몇 차례에 걸쳐 송구하단 말씀을 드렸다"며 "유감스럽게 생각한다"고 말했다. 이어 "세수 추계를 통상 국회 예산정책처가 비교적 권위 있게 기재부와 같이 전망을 하는데 올해 세수 전망과 지난 7월 2차 추경 당시 수정 세입 전망, 내년도 세입 전망 모두 비교해 보면 큰 차이가 없다"고 강조했다. 또 홍 부총리는 초과세수 19조원의 사용처에 대해 "이 중에 약 40%는 교부금으로 지방에 교부가 되고 이걸 빼면 많아야 13조원이 가용재원인데 상당부분 소상공인 손실보상에 대한 부족 재원, 그리고 손실보상 대상이 되지 않는 업종에 대한 추가지원 대책에 검토하겠다"고 민주당과 대립각을 세웠다. 그러면서 "결국 정책과 예산 모두 국가와 국민을 지향점으로 한다"라며 "재정당국으로서 재정에 대한 원칙과 기준을 견지하려는 노력이 불가피하다. 그것은 기본 소명이라는 점을 가슴에 담고 국회 예산 심의에 임하겠다"고 했다. 당정 갈등이 격화하자 민주당 내부에서는 우려의 목소리가 나왔다. 5선 중진인 이상민 의원은 이날 BBS 라디오 '박경수의 아침저널'에 출연해 "(당정 갈등이) 있어도 (당이) 조율해가는 노력을 보여야지, 겁박하고 또 임기 말 정부니까 여당이 끌고 가겠다는 자세도 별로 바람직하지는 않다"고 비판했다.</t>
+          <t>영국의 다국적 제약사 아스트라제네카의 파스칼 소리오 최고경영자(CEO)가 "유럽의 코로나19 재확산은 이 지역 고령층의 아스트라제네카 백신 접종률이 낮기 때문일 수도 있다"고 발언해 논란이 일고 있다고 23일(현지시간) 가디언, 파이낸셜타임스(FT) 등이 보도했다.        소리오 CEO는 아스트라제네카 백신을 널리 사용한 영국이 다른 유럽 국가들에 비해 코로나19 입원 환자 수가 적은 상황을 근거로 이런 주장을 폈지만, 의학계에선 "국가별로 코로나19 감염 상황에 차이가 나는 현상을 한 가지 원인으로 설명하긴 어렵다"는 반박이 나왔다.       아스트라제네카 백신. [AP=연합뉴스]      ━   "아스트라 백신, T세포 반응 더 활성화"       소리오 CEO는 이날 BBC라디오와의 인터뷰에서 "영국의 상황은 정말 흥미롭다. 감염자가 확 늘어도 다른 유럽 국가들과 비교해 입원 환자는 그리 많지 않다. 영국은 아스트라제네카 백신을 고령층에 접종했지만, 유럽은 고령층에 별로 효과가 없다고 생각해 놓지 않았다"고 말했다.       아스트라제네카 백신의 종주국인 영국은 이 백신을 고령층 중심으로 널리 사용했다. 다른 유럽 국가들은 아스트라제네카 백신과 관련해 효능과 혈전 논란이 불거지자 해당 백신의 접종 연령을 제한하거나 접종을 중단하는 식으로 비중을 줄여갔다.        파스칼 소리오 아스트라제네카 최고경영자(CEO). [로이터=연합뉴스]       FT에 따르면 23일 기준 코로나19 입원 환자 수가 영국은 10만 명당 12명인 반면, 오스트리아는 10만 명당 28.7명에 이른다. 소리오 CEO는 "코로나19 예방을 위해선 항체뿐 아니라 T세포가 중요한데, 아스트라제네카 백신은 고령층의 T세포 반응을 더 높은 수준으로 자극하는 것으로 나타났다"고 강조했다.        T세포 면역은 항체와 더불어 백신을 맞으면 나타나는 반응이다. 항체는 코로나바이러스의 스파이크 단백질에 달라붙어 세포 속으로 침투하는 것을 막는다. 따라서 바이러스의 스파이크 단백질 모양에 변이가 일어나면, 바이러스의 세포 침투를 방어하는 항체 기능이 떨어질 수 있다. T세포는 바이러스가 항체를 뚫고 침투해 감염시킨 세포를 골라 직접 제거한다. 즉 항체는 바이러스의 세포 안 침투를 막아 감염을 차단하고, T세포는 항체가 뚫려 감염된 세포를 죽여 위중증으로 번지는 걸 막는다.      영국 에든버러대의 엘리너 라일리 교수는 "임상 시험 데이터를 살펴보면 접종 초기 아스트라제네카 백신이 mRNA 백신(화이자·모더나 백신)보다 높은 수준의 T세포 반응을 유도한다. 때문에 장기적으로 입원과 사망을 막는 효과가 있을 것"이라며 소리오 CEO의 주장에 힘을 실었다.     ━   "단일 원인 찾지 마라" "화이자와 T세포 반응 비슷"         하지만 소리오 CEO의 주장에 대해 의학계에선 부정적인 목소리가 지배적이다. 임페리얼칼리지런던의 대니 알트만 교수는 "국가마다 감염 상황에 차이가 나는 원인을 단일 요인에서 찾는 건 무모한 것"이라고 꼬집었다.      또 옥스퍼드대의 매튜 스네이프 교수는 "1회 접종 후엔 아스트라제네카 백신이 화이자 백신보다 더 높은 T세포 반응을 유도한 것으로 나타났지만, 2회 접종 직후엔 두 백신의 T세포 반응 정도가 매우 비슷했다"고 말했다. 감염병 전문가인 랜스 터틀 박사는 "현재로선 아스트라제네카 백신이 다른 백신보다 T세포 반응이 더 나타나는지 확신할 수 없다"며 "이를 알기 위해선 더 많은 연구가 필요하다"고 말했다.       지난 20일 사람들로 북적이는 런던 거리. [로이터=연합뉴스]       가디언은 국가별로 코로나19 감염률과 입원율 등에 차이가 나는 원인은 코로나19 방역 제한이 해제된 시기와 정도, 변이 출현, 시간에 따른 백신 효능 감소, 백신 접종 간격 등을 복합적으로 고려해야 한다고 지적했다.       한편 23일 세계보건기구(WHO)는 코로나19로 인한 유럽 내 누적 사망자가 내년 3월까지 220만 명에 달할 수 있다는 전망을 내놨다. 현재 유럽의 코로나19 누적 사망자는 150만 명으로, 지금 추세라면 앞으로 70만 명의 추가 사망자가 더 나올 수 있다고 경고했다.         WHO는 유럽의 코로나19 확산세는 마스크 착용과 거리 두기 등의 제한 조치 완화, 전염력이 높은 델타 변이 확산, 불충분한 백신 접종률 등이 복합적으로 작용한 데 따른 것이라고 분석했다. 한스 클루주 WHO 유럽사무소 소장은 "'백신 플러스' 접근법을 취할 필요가 있다"면서 "백신 접종과 함께 마스크 착용, 거리 두기, 손 씻기, 환기 등의 방역 규칙을 병행하라"고 강조했다.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021.11.17. 오후 5:23</t>
+          <t>2021.11.24. 오후 3:55</t>
         </is>
       </c>
       <c r="D21" t="n">
